--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
   <si>
     <t>Unit (thousand) money</t>
   </si>
@@ -200,31 +200,31 @@
     <t>Plan January 2024</t>
   </si>
   <si>
-    <t>Fact  January 2024</t>
+    <t>Fact January 2024</t>
   </si>
   <si>
     <t>Fact January 2023</t>
   </si>
   <si>
-    <t>=G87</t>
-  </si>
-  <si>
-    <t>Fact December 2023/Fact December 2022</t>
-  </si>
-  <si>
-    <t>01m. 2024 plan</t>
-  </si>
-  <si>
-    <t>01m.2024 fact</t>
-  </si>
-  <si>
-    <t>01m. 2023 fact</t>
-  </si>
-  <si>
-    <t>Fact 01m. 2024/Plan 01m.2024</t>
-  </si>
-  <si>
-    <t>Fact01m. 2024/Fact 01m.2023</t>
+    <t>Fact January 2024/Plan January 2024</t>
+  </si>
+  <si>
+    <t>Fact December 2024/Fact December 2023</t>
+  </si>
+  <si>
+    <t>Plan 01m.2024</t>
+  </si>
+  <si>
+    <t>Fact 01m.2024</t>
+  </si>
+  <si>
+    <t>Fact 01m.2023</t>
+  </si>
+  <si>
+    <t>Fact 01m.2024/Plan 01m.2024</t>
+  </si>
+  <si>
+    <t>Fact01m.2024/Fact 01m.2023</t>
   </si>
   <si>
     <t>+/-</t>
@@ -1169,7 +1169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,6 +1377,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1736,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A2:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:I53"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1745,20 +1746,20 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="24.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="24.2166666666667" customWidth="1"/>
-    <col min="7" max="7" width="6.11666666666667" customWidth="1"/>
-    <col min="8" max="8" width="5.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="13.3583333333333" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.5166666666667" customWidth="1"/>
+    <col min="7" max="7" width="8.525" customWidth="1"/>
+    <col min="8" max="8" width="7.66666666666667" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="27.625" customWidth="1"/>
+    <col min="12" max="12" width="8.44166666666667" customWidth="1"/>
+    <col min="13" max="13" width="8.78333333333333" customWidth="1"/>
+    <col min="14" max="14" width="11.5583333333333" customWidth="1"/>
     <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="3.75" customWidth="1"/>
+    <col min="16" max="16" width="9.30833333333333" customWidth="1"/>
+    <col min="17" max="17" width="5.69166666666667" customWidth="1"/>
     <col min="18" max="18" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2114,7 +2115,10 @@
       </c>
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
-      <c r="Z8" s="72"/>
+      <c r="Z8" s="72" t="str">
+        <f t="shared" ref="Z8:Z32" si="7">IF(Y8&lt;&gt;0,X8/Y8,"-")</f>
+        <v>-</v>
+      </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -2170,7 +2174,10 @@
       </c>
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
-      <c r="Z9" s="72"/>
+      <c r="Z9" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA9" s="21"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -2230,7 +2237,10 @@
       </c>
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
-      <c r="Z10" s="72"/>
+      <c r="Z10" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA10" s="21"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -2286,7 +2296,10 @@
       </c>
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
-      <c r="Z11" s="72"/>
+      <c r="Z11" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA11" s="21"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
@@ -2346,7 +2359,10 @@
       </c>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
-      <c r="Z12" s="72"/>
+      <c r="Z12" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA12" s="21"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
@@ -2402,7 +2418,10 @@
       </c>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
-      <c r="Z13" s="72"/>
+      <c r="Z13" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA13" s="21"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -2462,7 +2481,10 @@
       </c>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
-      <c r="Z14" s="72"/>
+      <c r="Z14" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA14" s="21"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
@@ -2518,7 +2540,10 @@
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
-      <c r="Z15" s="72"/>
+      <c r="Z15" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="23"/>
       <c r="AC15" s="23"/>
@@ -2578,7 +2603,10 @@
       </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
-      <c r="Z16" s="72"/>
+      <c r="Z16" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
@@ -2636,7 +2664,10 @@
       </c>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
-      <c r="Z17" s="72"/>
+      <c r="Z17" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA17" s="21"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
@@ -2695,7 +2726,10 @@
       </c>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
-      <c r="Z18" s="72"/>
+      <c r="Z18" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA18" s="21"/>
       <c r="AB18" s="23"/>
       <c r="AC18" s="23"/>
@@ -2766,7 +2800,10 @@
       </c>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
-      <c r="Z19" s="72"/>
+      <c r="Z19" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA19" s="21"/>
       <c r="AB19" s="23"/>
       <c r="AC19" s="23"/>
@@ -2835,7 +2872,10 @@
       </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
-      <c r="Z20" s="72"/>
+      <c r="Z20" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA20" s="21"/>
       <c r="AB20" s="23"/>
       <c r="AC20" s="23"/>
@@ -2904,7 +2944,10 @@
       </c>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
-      <c r="Z21" s="72"/>
+      <c r="Z21" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA21" s="21"/>
       <c r="AB21" s="23"/>
       <c r="AC21" s="23"/>
@@ -2962,7 +3005,10 @@
       </c>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
-      <c r="Z22" s="72"/>
+      <c r="Z22" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA22" s="21"/>
       <c r="AB22" s="23"/>
       <c r="AC22" s="23"/>
@@ -3022,7 +3068,10 @@
       </c>
       <c r="X23" s="21"/>
       <c r="Y23" s="21"/>
-      <c r="Z23" s="72"/>
+      <c r="Z23" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA23" s="21"/>
       <c r="AB23" s="23"/>
       <c r="AC23" s="23"/>
@@ -3082,7 +3131,10 @@
       </c>
       <c r="X24" s="21"/>
       <c r="Y24" s="21"/>
-      <c r="Z24" s="72"/>
+      <c r="Z24" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA24" s="21"/>
       <c r="AB24" s="23"/>
       <c r="AC24" s="23"/>
@@ -3140,7 +3192,10 @@
       </c>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="72"/>
+      <c r="Z25" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA25" s="21"/>
       <c r="AB25" s="23"/>
       <c r="AC25" s="23"/>
@@ -3200,7 +3255,10 @@
       </c>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
-      <c r="Z26" s="72"/>
+      <c r="Z26" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA26" s="21"/>
       <c r="AB26" s="23"/>
       <c r="AC26" s="23"/>
@@ -3258,7 +3316,10 @@
       </c>
       <c r="X27" s="21"/>
       <c r="Y27" s="21"/>
-      <c r="Z27" s="72"/>
+      <c r="Z27" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA27" s="21"/>
       <c r="AB27" s="23"/>
       <c r="AC27" s="23"/>
@@ -3319,7 +3380,10 @@
       </c>
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
-      <c r="Z28" s="72"/>
+      <c r="Z28" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA28" s="21"/>
       <c r="AB28" s="23"/>
       <c r="AC28" s="23"/>
@@ -3378,7 +3442,10 @@
       </c>
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
-      <c r="Z29" s="72"/>
+      <c r="Z29" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA29" s="21"/>
       <c r="AB29" s="23"/>
       <c r="AC29" s="23"/>
@@ -3449,7 +3516,10 @@
       </c>
       <c r="X30" s="21"/>
       <c r="Y30" s="21"/>
-      <c r="Z30" s="72"/>
+      <c r="Z30" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA30" s="21"/>
       <c r="AB30" s="23"/>
       <c r="AC30" s="23"/>
@@ -3518,7 +3588,10 @@
       </c>
       <c r="X31" s="21"/>
       <c r="Y31" s="21"/>
-      <c r="Z31" s="72"/>
+      <c r="Z31" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="23"/>
       <c r="AC31" s="23"/>
@@ -3587,7 +3660,10 @@
       </c>
       <c r="X32" s="21"/>
       <c r="Y32" s="21"/>
-      <c r="Z32" s="72"/>
+      <c r="Z32" s="72" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
       <c r="AA32" s="21"/>
       <c r="AB32" s="23"/>
       <c r="AC32" s="23"/>
@@ -3874,7 +3950,7 @@
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" ht="15" spans="1:29">
       <c r="A41" s="31" t="s">
         <v>41</v>
       </c>
@@ -3895,12 +3971,20 @@
       <c r="H41" s="27"/>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
+      <c r="K41" s="62">
+        <v>0</v>
+      </c>
+      <c r="L41" s="62">
+        <v>0</v>
+      </c>
+      <c r="M41" s="62">
+        <v>0</v>
+      </c>
       <c r="N41" s="32"/>
       <c r="O41" s="42"/>
-      <c r="P41" s="63"/>
+      <c r="P41" s="63">
+        <v>0</v>
+      </c>
       <c r="Q41" s="71" t="s">
         <v>42</v>
       </c>
@@ -3917,7 +4001,7 @@
       <c r="AB41" s="23"/>
       <c r="AC41" s="23"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" ht="15" spans="1:29">
       <c r="A42" s="36"/>
       <c r="B42" s="32">
         <v>0</v>
@@ -3936,12 +4020,20 @@
       <c r="H42" s="27"/>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
+      <c r="K42" s="62">
+        <v>0</v>
+      </c>
+      <c r="L42" s="62">
+        <v>0</v>
+      </c>
+      <c r="M42" s="62">
+        <v>0</v>
+      </c>
       <c r="N42" s="32"/>
       <c r="O42" s="42"/>
-      <c r="P42" s="63"/>
+      <c r="P42" s="63">
+        <v>0</v>
+      </c>
       <c r="Q42" s="71" t="s">
         <v>42</v>
       </c>
@@ -3958,7 +4050,7 @@
       <c r="AB42" s="23"/>
       <c r="AC42" s="23"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" ht="15" spans="1:29">
       <c r="A43" s="36"/>
       <c r="B43" s="32">
         <v>0</v>
@@ -3977,12 +4069,20 @@
       <c r="H43" s="27"/>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
+      <c r="K43" s="62">
+        <v>0</v>
+      </c>
+      <c r="L43" s="62">
+        <v>0</v>
+      </c>
+      <c r="M43" s="62">
+        <v>0</v>
+      </c>
       <c r="N43" s="32"/>
       <c r="O43" s="42"/>
-      <c r="P43" s="63"/>
+      <c r="P43" s="63">
+        <v>0</v>
+      </c>
       <c r="Q43" s="71" t="s">
         <v>42</v>
       </c>
@@ -3999,7 +4099,7 @@
       <c r="AB43" s="23"/>
       <c r="AC43" s="23"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" ht="15" spans="1:29">
       <c r="A44" s="36"/>
       <c r="B44" s="32">
         <v>0</v>
@@ -4018,12 +4118,20 @@
       <c r="H44" s="27"/>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
+      <c r="K44" s="62">
+        <v>0</v>
+      </c>
+      <c r="L44" s="62">
+        <v>0</v>
+      </c>
+      <c r="M44" s="62">
+        <v>0</v>
+      </c>
       <c r="N44" s="32"/>
       <c r="O44" s="42"/>
-      <c r="P44" s="63"/>
+      <c r="P44" s="63">
+        <v>0</v>
+      </c>
       <c r="Q44" s="71" t="s">
         <v>42</v>
       </c>
@@ -4040,7 +4148,7 @@
       <c r="AB44" s="23"/>
       <c r="AC44" s="23"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" ht="15" spans="1:29">
       <c r="A45" s="36"/>
       <c r="B45" s="32">
         <v>0</v>
@@ -4059,12 +4167,20 @@
       <c r="H45" s="27"/>
       <c r="I45" s="33"/>
       <c r="J45" s="33"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
+      <c r="K45" s="62">
+        <v>0</v>
+      </c>
+      <c r="L45" s="62">
+        <v>0</v>
+      </c>
+      <c r="M45" s="62">
+        <v>0</v>
+      </c>
       <c r="N45" s="32"/>
       <c r="O45" s="42"/>
-      <c r="P45" s="63"/>
+      <c r="P45" s="63">
+        <v>0</v>
+      </c>
       <c r="Q45" s="71" t="s">
         <v>42</v>
       </c>
@@ -4081,7 +4197,7 @@
       <c r="AB45" s="23"/>
       <c r="AC45" s="23"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" ht="15" spans="1:29">
       <c r="A46" s="36"/>
       <c r="B46" s="32">
         <v>0</v>
@@ -4100,12 +4216,20 @@
       <c r="H46" s="27"/>
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
+      <c r="K46" s="62">
+        <v>0</v>
+      </c>
+      <c r="L46" s="62">
+        <v>0</v>
+      </c>
+      <c r="M46" s="62">
+        <v>0</v>
+      </c>
       <c r="N46" s="32"/>
       <c r="O46" s="42"/>
-      <c r="P46" s="63"/>
+      <c r="P46" s="63">
+        <v>0</v>
+      </c>
       <c r="Q46" s="71" t="s">
         <v>42</v>
       </c>
@@ -4122,7 +4246,7 @@
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" ht="15" spans="1:29">
       <c r="A47" s="36"/>
       <c r="B47" s="32">
         <v>0</v>
@@ -4141,12 +4265,20 @@
       <c r="H47" s="27"/>
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
+      <c r="K47" s="62">
+        <v>0</v>
+      </c>
+      <c r="L47" s="62">
+        <v>0</v>
+      </c>
+      <c r="M47" s="62">
+        <v>0</v>
+      </c>
       <c r="N47" s="32"/>
       <c r="O47" s="42"/>
-      <c r="P47" s="63"/>
+      <c r="P47" s="63">
+        <v>0</v>
+      </c>
       <c r="Q47" s="71" t="s">
         <v>42</v>
       </c>
@@ -4163,7 +4295,7 @@
       <c r="AB47" s="23"/>
       <c r="AC47" s="23"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" ht="15" spans="1:29">
       <c r="A48" s="36"/>
       <c r="B48" s="32">
         <v>0</v>
@@ -4182,12 +4314,20 @@
       <c r="H48" s="27"/>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
+      <c r="K48" s="62">
+        <v>0</v>
+      </c>
+      <c r="L48" s="62">
+        <v>0</v>
+      </c>
+      <c r="M48" s="62">
+        <v>0</v>
+      </c>
       <c r="N48" s="32"/>
       <c r="O48" s="42"/>
-      <c r="P48" s="63"/>
+      <c r="P48" s="63">
+        <v>0</v>
+      </c>
       <c r="Q48" s="71" t="s">
         <v>42</v>
       </c>
@@ -4204,7 +4344,7 @@
       <c r="AB48" s="23"/>
       <c r="AC48" s="23"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" ht="15" spans="1:29">
       <c r="A49" s="36"/>
       <c r="B49" s="32">
         <v>0</v>
@@ -4223,12 +4363,20 @@
       <c r="H49" s="27"/>
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
+      <c r="K49" s="62">
+        <v>0</v>
+      </c>
+      <c r="L49" s="62">
+        <v>0</v>
+      </c>
+      <c r="M49" s="62">
+        <v>0</v>
+      </c>
       <c r="N49" s="32"/>
       <c r="O49" s="42"/>
-      <c r="P49" s="63"/>
+      <c r="P49" s="63">
+        <v>0</v>
+      </c>
       <c r="Q49" s="71" t="s">
         <v>42</v>
       </c>
@@ -4245,7 +4393,7 @@
       <c r="AB49" s="23"/>
       <c r="AC49" s="23"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" ht="15" spans="1:29">
       <c r="A50" s="36"/>
       <c r="B50" s="32">
         <v>0</v>
@@ -4264,12 +4412,20 @@
       <c r="H50" s="27"/>
       <c r="I50" s="33"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
+      <c r="K50" s="62">
+        <v>0</v>
+      </c>
+      <c r="L50" s="62">
+        <v>0</v>
+      </c>
+      <c r="M50" s="62">
+        <v>0</v>
+      </c>
       <c r="N50" s="32"/>
       <c r="O50" s="42"/>
-      <c r="P50" s="63"/>
+      <c r="P50" s="63">
+        <v>0</v>
+      </c>
       <c r="Q50" s="71" t="s">
         <v>42</v>
       </c>
@@ -4286,7 +4442,7 @@
       <c r="AB50" s="23"/>
       <c r="AC50" s="23"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" ht="15" spans="1:29">
       <c r="A51" s="37"/>
       <c r="B51" s="38" t="s">
         <v>43</v>
@@ -4342,7 +4498,7 @@
       <c r="AB51" s="23"/>
       <c r="AC51" s="23"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" ht="15" spans="1:29">
       <c r="A52" s="39" t="s">
         <v>44</v>
       </c>
@@ -4397,7 +4553,7 @@
       <c r="AB52" s="23"/>
       <c r="AC52" s="23"/>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" ht="15" spans="1:29">
       <c r="A53" s="28" t="s">
         <v>13</v>
       </c>
@@ -4496,48 +4652,39 @@
       <c r="B55" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="40">
-        <v>0</v>
-      </c>
-      <c r="D55" s="40">
-        <v>0</v>
-      </c>
-      <c r="E55" s="40">
-        <v>0</v>
-      </c>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
       <c r="F55" s="41" t="s">
         <v>47</v>
       </c>
       <c r="G55" s="27"/>
-      <c r="H55" s="40">
-        <v>0</v>
-      </c>
-      <c r="I55" s="40">
-        <v>0</v>
-      </c>
-      <c r="J55" s="40">
-        <v>0</v>
-      </c>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="63">
+        <f>C55-H55</f>
         <v>0</v>
       </c>
       <c r="L55" s="63">
+        <f>D55-I55</f>
         <v>0</v>
       </c>
       <c r="M55" s="63">
+        <f>E55-J55</f>
         <v>0</v>
       </c>
       <c r="N55" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="O55" s="42">
-        <v>0</v>
-      </c>
+      <c r="O55" s="42"/>
       <c r="P55" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="71" t="s">
-        <v>42</v>
+        <f>C55-O55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="71" t="str">
+        <f t="shared" ref="Q55:Q60" si="8">IF(O55&lt;&gt;0,C55/O55,"-")</f>
+        <v>-</v>
       </c>
       <c r="R55" s="27"/>
       <c r="S55" s="23"/>
@@ -4557,48 +4704,39 @@
       <c r="B56" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="40">
-        <v>3532.15108</v>
-      </c>
-      <c r="D56" s="40">
-        <v>3532.15108</v>
-      </c>
-      <c r="E56" s="40">
-        <v>3532.15108</v>
-      </c>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
       <c r="F56" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G56" s="27"/>
-      <c r="H56" s="40">
-        <v>3521.61016</v>
-      </c>
-      <c r="I56" s="40">
-        <v>3521.61016</v>
-      </c>
-      <c r="J56" s="40">
-        <v>3521.61016</v>
-      </c>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
       <c r="K56" s="63">
-        <v>10.5409199999999</v>
+        <f>C56-H56</f>
+        <v>0</v>
       </c>
       <c r="L56" s="63">
-        <v>10.5409199999999</v>
+        <f>D56-I56</f>
+        <v>0</v>
       </c>
       <c r="M56" s="63">
-        <v>10.5409199999999</v>
+        <f>E56-J56</f>
+        <v>0</v>
       </c>
       <c r="N56" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="O56" s="42">
-        <v>3361.35843</v>
-      </c>
+      <c r="O56" s="42"/>
       <c r="P56" s="63">
-        <v>170.79265</v>
-      </c>
-      <c r="Q56" s="71">
-        <v>1.05081060337859</v>
+        <f>C56-O56</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
       </c>
       <c r="R56" s="27"/>
       <c r="S56" s="23"/>
@@ -4618,48 +4756,39 @@
       <c r="B57" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="40">
-        <v>0</v>
-      </c>
-      <c r="D57" s="40">
-        <v>0</v>
-      </c>
-      <c r="E57" s="40">
-        <v>0</v>
-      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="41" t="s">
         <v>49</v>
       </c>
       <c r="G57" s="27"/>
-      <c r="H57" s="40">
-        <v>0</v>
-      </c>
-      <c r="I57" s="40">
-        <v>0</v>
-      </c>
-      <c r="J57" s="40">
-        <v>0</v>
-      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="63">
+        <f>C57-H57</f>
         <v>0</v>
       </c>
       <c r="L57" s="63">
+        <f>D57-I57</f>
         <v>0</v>
       </c>
       <c r="M57" s="63">
+        <f>E57-J57</f>
         <v>0</v>
       </c>
       <c r="N57" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="O57" s="42">
-        <v>0</v>
-      </c>
+      <c r="O57" s="42"/>
       <c r="P57" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="71" t="s">
-        <v>42</v>
+        <f>C57-O57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
       </c>
       <c r="R57" s="27"/>
       <c r="S57" s="23"/>
@@ -4674,53 +4803,44 @@
       <c r="AB57" s="23"/>
       <c r="AC57" s="23"/>
     </row>
-    <row r="58" ht="15" spans="1:29">
+    <row r="58" spans="1:29">
       <c r="A58" s="36"/>
       <c r="B58" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="40">
-        <v>127145.92396</v>
-      </c>
-      <c r="D58" s="40">
-        <v>25518.87821</v>
-      </c>
-      <c r="E58" s="40">
-        <v>25518.87821</v>
-      </c>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="41" t="s">
         <v>50</v>
       </c>
       <c r="G58" s="27"/>
-      <c r="H58" s="40">
-        <v>99379.38352</v>
-      </c>
-      <c r="I58" s="40">
-        <v>0</v>
-      </c>
-      <c r="J58" s="40">
-        <v>0</v>
-      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="63">
-        <v>27766.54044</v>
+        <f>C58-H58</f>
+        <v>0</v>
       </c>
       <c r="L58" s="63">
-        <v>25518.87821</v>
+        <f>D58-I58</f>
+        <v>0</v>
       </c>
       <c r="M58" s="63">
-        <v>25518.87821</v>
+        <f>E58-J58</f>
+        <v>0</v>
       </c>
       <c r="N58" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="O58" s="42">
-        <v>55916.33298</v>
-      </c>
+      <c r="O58" s="42"/>
       <c r="P58" s="63">
-        <v>71229.59098</v>
-      </c>
-      <c r="Q58" s="71">
-        <v>2.27386019761842</v>
+        <f>C58-O58</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
       </c>
       <c r="R58" s="27"/>
       <c r="S58" s="23"/>
@@ -4740,48 +4860,39 @@
       <c r="B59" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="40">
-        <v>3462.34957</v>
-      </c>
-      <c r="D59" s="40">
-        <v>253.10315</v>
-      </c>
-      <c r="E59" s="40">
-        <v>0</v>
-      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="41" t="s">
         <v>51</v>
       </c>
       <c r="G59" s="27"/>
-      <c r="H59" s="40">
-        <v>2763.18587</v>
-      </c>
-      <c r="I59" s="40">
-        <v>252.34782</v>
-      </c>
-      <c r="J59" s="40">
-        <v>0</v>
-      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="63">
-        <v>699.1637</v>
+        <f>C59-H59</f>
+        <v>0</v>
       </c>
       <c r="L59" s="63">
-        <v>0.755329999999987</v>
+        <f>D59-I59</f>
+        <v>0</v>
       </c>
       <c r="M59" s="63">
+        <f>E59-J59</f>
         <v>0</v>
       </c>
       <c r="N59" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="O59" s="42">
-        <v>1205.37057</v>
-      </c>
+      <c r="O59" s="42"/>
       <c r="P59" s="63">
-        <v>2256.979</v>
-      </c>
-      <c r="Q59" s="71">
-        <v>2.8724357937493</v>
+        <f>C59-O59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
       </c>
       <c r="R59" s="27"/>
       <c r="S59" s="23"/>
@@ -4796,53 +4907,65 @@
       <c r="AB59" s="23"/>
       <c r="AC59" s="23"/>
     </row>
-    <row r="60" ht="15" spans="1:29">
+    <row r="60" spans="1:29">
       <c r="A60" s="37"/>
       <c r="B60" s="38" t="s">
         <v>43</v>
       </c>
       <c r="C60" s="42">
-        <v>134140.42461</v>
+        <f>SUM(C55:C59)</f>
+        <v>0</v>
       </c>
       <c r="D60" s="42">
-        <v>29304.13244</v>
+        <f>SUM(D55:D59)</f>
+        <v>0</v>
       </c>
       <c r="E60" s="42">
-        <v>29051.02929</v>
+        <f>SUM(E55:E59)</f>
+        <v>0</v>
       </c>
       <c r="F60" s="41" t="s">
         <v>43</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="42">
-        <v>105664.17955</v>
+        <f t="shared" ref="H60:M60" si="9">SUM(H55:H59)</f>
+        <v>0</v>
       </c>
       <c r="I60" s="42">
-        <v>3773.95798</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="J60" s="42">
-        <v>3521.61016</v>
-      </c>
-      <c r="K60" s="63">
-        <v>28476.24506</v>
-      </c>
-      <c r="L60" s="63">
-        <v>25530.17446</v>
-      </c>
-      <c r="M60" s="63">
-        <v>25529.41913</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="42">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N60" s="38" t="s">
         <v>43</v>
       </c>
       <c r="O60" s="42">
-        <v>60483.06198</v>
+        <f>SUM(O55:O59)</f>
+        <v>0</v>
       </c>
       <c r="P60" s="63">
-        <v>73657.36263</v>
-      </c>
-      <c r="Q60" s="71">
-        <v>2.21781801745349</v>
+        <f>SUM(P55:P59)</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
       </c>
       <c r="R60" s="27"/>
       <c r="S60" s="23"/>
@@ -4862,44 +4985,56 @@
         <v>52</v>
       </c>
       <c r="B61" s="43">
-        <v>134140.42461</v>
+        <f>C60</f>
+        <v>0</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="40">
-        <v>29304.13244</v>
+        <f>D60</f>
+        <v>0</v>
       </c>
       <c r="E61" s="40">
-        <v>29051.02929</v>
+        <f>E60</f>
+        <v>0</v>
       </c>
       <c r="F61" s="43">
-        <v>105664.17955</v>
+        <f>H60</f>
+        <v>0</v>
       </c>
       <c r="G61" s="26"/>
       <c r="H61" s="27"/>
       <c r="I61" s="40">
-        <v>3773.95798</v>
+        <f>I60</f>
+        <v>0</v>
       </c>
       <c r="J61" s="40">
-        <v>3521.61016</v>
+        <f>J60</f>
+        <v>0</v>
       </c>
       <c r="K61" s="66">
-        <v>28476.24506</v>
+        <f>K60</f>
+        <v>0</v>
       </c>
       <c r="L61" s="66">
-        <v>25530.17446</v>
+        <f>L60</f>
+        <v>0</v>
       </c>
       <c r="M61" s="66">
-        <v>25529.41913</v>
+        <f>M60</f>
+        <v>0</v>
       </c>
       <c r="N61" s="43">
-        <v>60483.06198</v>
+        <f>O60</f>
+        <v>0</v>
       </c>
       <c r="O61" s="27"/>
       <c r="P61" s="66">
-        <v>73657.36263</v>
-      </c>
-      <c r="Q61" s="71">
-        <v>2.21781801745349</v>
+        <f>P60</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="71" t="str">
+        <f>Q60</f>
+        <v>-</v>
       </c>
       <c r="R61" s="27"/>
       <c r="S61" s="23"/>
@@ -4976,44 +5111,56 @@
         <v>13</v>
       </c>
       <c r="B63" s="44">
-        <v>134140.42461</v>
+        <f>C60</f>
+        <v>0</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="42">
-        <v>29304.13244</v>
+        <f>D60</f>
+        <v>0</v>
       </c>
       <c r="E63" s="42">
-        <v>29051.02929</v>
+        <f>E60</f>
+        <v>0</v>
       </c>
       <c r="F63" s="44">
-        <v>105664.17955</v>
+        <f>H60</f>
+        <v>0</v>
       </c>
       <c r="G63" s="26"/>
       <c r="H63" s="27"/>
       <c r="I63" s="42">
-        <v>3773.95798</v>
+        <f>I60</f>
+        <v>0</v>
       </c>
       <c r="J63" s="42">
-        <v>3521.61016</v>
+        <f>J60</f>
+        <v>0</v>
       </c>
       <c r="K63" s="63">
-        <v>28476.24506</v>
+        <f>K60</f>
+        <v>0</v>
       </c>
       <c r="L63" s="63">
-        <v>25530.17446</v>
+        <f>L60</f>
+        <v>0</v>
       </c>
       <c r="M63" s="63">
-        <v>25529.41913</v>
+        <f>M60</f>
+        <v>0</v>
       </c>
       <c r="N63" s="44">
-        <v>60483.06198</v>
+        <f>O60</f>
+        <v>0</v>
       </c>
       <c r="O63" s="27"/>
       <c r="P63" s="63">
-        <v>73657.36263</v>
-      </c>
-      <c r="Q63" s="71">
-        <v>2.21781801745349</v>
+        <f>P60</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="71" t="str">
+        <f>Q60</f>
+        <v>-</v>
       </c>
       <c r="R63" s="27"/>
       <c r="S63" s="23"/>
@@ -5097,12 +5244,12 @@
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="G66" s="73"/>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
+      <c r="L66"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
       <c r="O66" s="23"/>
@@ -5122,44 +5269,44 @@
       <c r="AC66" s="23"/>
     </row>
     <row r="67" ht="31" customHeight="1" spans="1:29">
-      <c r="A67" s="73" t="s">
+      <c r="A67" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="74"/>
-      <c r="C67" s="73" t="s">
+      <c r="B67" s="75"/>
+      <c r="C67" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D67" s="73" t="s">
+      <c r="D67" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="E67" s="73" t="s">
+      <c r="E67" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="73" t="s">
+      <c r="F67" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="G67" s="75" t="s">
+      <c r="G67" s="76" t="s">
         <v>59</v>
       </c>
       <c r="H67" s="27"/>
-      <c r="I67" s="73" t="s">
+      <c r="I67" s="74" t="s">
         <v>60</v>
       </c>
       <c r="J67" s="27"/>
-      <c r="K67" s="73" t="s">
+      <c r="K67" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="L67" s="73" t="s">
+      <c r="L67" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M67" s="73" t="s">
+      <c r="M67" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="N67" s="73" t="s">
+      <c r="N67" s="74" t="s">
         <v>64</v>
       </c>
       <c r="O67" s="27"/>
-      <c r="P67" s="73" t="s">
+      <c r="P67" s="74" t="s">
         <v>65</v>
       </c>
       <c r="Q67" s="27"/>
@@ -5176,38 +5323,38 @@
       <c r="AB67" s="23"/>
       <c r="AC67" s="23"/>
     </row>
-    <row r="68" ht="15" spans="1:29">
-      <c r="A68" s="76"/>
-      <c r="B68" s="77"/>
+    <row r="68" spans="1:29">
+      <c r="A68" s="77"/>
+      <c r="B68" s="78"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
-      <c r="G68" s="78" t="s">
+      <c r="G68" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="H68" s="78" t="s">
+      <c r="H68" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="78" t="s">
+      <c r="I68" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="J68" s="78" t="s">
+      <c r="J68" s="79" t="s">
         <v>16</v>
       </c>
       <c r="K68" s="37"/>
       <c r="L68" s="37"/>
       <c r="M68" s="37"/>
-      <c r="N68" s="78" t="s">
+      <c r="N68" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="O68" s="78" t="s">
+      <c r="O68" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="P68" s="78" t="s">
+      <c r="P68" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="Q68" s="78" t="s">
+      <c r="Q68" s="79" t="s">
         <v>16</v>
       </c>
       <c r="R68" s="23"/>
@@ -5223,54 +5370,63 @@
       <c r="AB68" s="23"/>
       <c r="AC68" s="23"/>
     </row>
-    <row r="69" ht="15" spans="1:29">
-      <c r="A69" s="79" t="s">
+    <row r="69" spans="1:29">
+      <c r="A69" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="80"/>
-      <c r="C69" s="81" t="s">
+      <c r="B69" s="81"/>
+      <c r="C69" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="82">
+      <c r="D69" s="83">
         <v>52111407.1191667</v>
       </c>
-      <c r="E69" s="82">
+      <c r="E69" s="83">
+        <f>SUM(E70:E72)</f>
         <v>56480927.44</v>
       </c>
-      <c r="F69" s="82">
+      <c r="F69" s="83">
         <v>31797551.87</v>
       </c>
-      <c r="G69" s="82">
-        <v>4369520.32083333</v>
-      </c>
-      <c r="H69" s="83">
+      <c r="G69" s="83">
+        <f>E69-D69</f>
+        <v>4369520.3208333</v>
+      </c>
+      <c r="H69" s="84">
+        <f>E69/D69</f>
         <v>1.08384959382964</v>
       </c>
-      <c r="I69" s="82">
+      <c r="I69" s="83">
+        <f>E69-F69</f>
         <v>24683375.57</v>
       </c>
-      <c r="J69" s="83">
+      <c r="J69" s="84">
+        <f>E69/F69</f>
         <v>1.77626653998127</v>
       </c>
-      <c r="K69" s="82">
+      <c r="K69" s="83">
         <v>52111407.1191667</v>
       </c>
-      <c r="L69" s="82">
+      <c r="L69" s="83">
         <v>56480927.44</v>
       </c>
-      <c r="M69" s="82">
+      <c r="M69" s="83">
         <v>31797551.87</v>
       </c>
-      <c r="N69" s="82">
-        <v>4369520.32083333</v>
-      </c>
-      <c r="O69" s="83">
+      <c r="N69" s="83">
+        <f>L69-K69</f>
+        <v>4369520.3208333</v>
+      </c>
+      <c r="O69" s="84">
+        <f>L69/K69</f>
         <v>1.08384959382964</v>
       </c>
-      <c r="P69" s="82">
+      <c r="P69" s="83">
+        <f>L69-M69</f>
         <v>24683375.57</v>
       </c>
-      <c r="Q69" s="83">
+      <c r="Q69" s="84">
+        <f>L69/M69</f>
         <v>1.77626653998127</v>
       </c>
       <c r="R69" s="23"/>
@@ -5286,54 +5442,62 @@
       <c r="AB69" s="23"/>
       <c r="AC69" s="23"/>
     </row>
-    <row r="70" ht="15" spans="1:29">
-      <c r="A70" s="79" t="s">
+    <row r="70" spans="1:29">
+      <c r="A70" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="80"/>
-      <c r="C70" s="81" t="s">
+      <c r="B70" s="81"/>
+      <c r="C70" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="84">
+      <c r="D70" s="85">
         <v>19119614.3333333</v>
       </c>
-      <c r="E70" s="84">
+      <c r="E70" s="85">
         <v>20168229.13</v>
       </c>
-      <c r="F70" s="84">
+      <c r="F70" s="85">
         <v>21694717.83</v>
       </c>
-      <c r="G70" s="84">
-        <v>1048614.79666667</v>
-      </c>
-      <c r="H70" s="85">
-        <v>1.05484497638838</v>
-      </c>
-      <c r="I70" s="82">
+      <c r="G70" s="85">
+        <f>E70-F70</f>
         <v>-1526488.7</v>
       </c>
-      <c r="J70" s="83">
+      <c r="H70" s="86">
+        <f>E70/D70</f>
+        <v>1.05484497638839</v>
+      </c>
+      <c r="I70" s="85">
+        <f>E70-F70</f>
+        <v>-1526488.7</v>
+      </c>
+      <c r="J70" s="86">
+        <f t="shared" ref="J70:J81" si="10">E70/F70</f>
         <v>0.929637771186444</v>
       </c>
-      <c r="K70" s="84">
+      <c r="K70" s="85">
         <v>19119614.3333333</v>
       </c>
-      <c r="L70" s="84">
+      <c r="L70" s="85">
         <v>20168229.13</v>
       </c>
-      <c r="M70" s="84">
+      <c r="M70" s="85">
         <v>21694717.83</v>
       </c>
-      <c r="N70" s="84">
-        <v>1048614.79666667</v>
-      </c>
-      <c r="O70" s="85">
-        <v>1.05484497638838</v>
-      </c>
-      <c r="P70" s="84">
+      <c r="N70" s="85">
+        <f t="shared" ref="N70:N81" si="11">L70-K70</f>
+        <v>1048614.7966667</v>
+      </c>
+      <c r="O70" s="86">
+        <f t="shared" ref="O70:O81" si="12">L70/K70</f>
+        <v>1.05484497638839</v>
+      </c>
+      <c r="P70" s="85">
+        <f t="shared" ref="P70:P81" si="13">L70-M70</f>
         <v>-1526488.7</v>
       </c>
-      <c r="Q70" s="85">
+      <c r="Q70" s="86">
+        <f t="shared" ref="Q70:Q81" si="14">L70/M70</f>
         <v>0.929637771186444</v>
       </c>
       <c r="R70" s="23"/>
@@ -5349,54 +5513,62 @@
       <c r="AB70" s="23"/>
       <c r="AC70" s="23"/>
     </row>
-    <row r="71" ht="15" spans="1:29">
-      <c r="A71" s="79" t="s">
+    <row r="71" spans="1:29">
+      <c r="A71" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="81" t="s">
+      <c r="B71" s="81"/>
+      <c r="C71" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="84">
+      <c r="D71" s="85">
         <v>32032821.3333333</v>
       </c>
-      <c r="E71" s="84">
+      <c r="E71" s="85">
         <v>35329356.39</v>
       </c>
-      <c r="F71" s="84">
+      <c r="F71" s="85">
         <v>9179555.32</v>
       </c>
-      <c r="G71" s="84">
-        <v>3296535.05666667</v>
-      </c>
-      <c r="H71" s="85">
+      <c r="G71" s="85">
+        <f>E71-D71</f>
+        <v>3296535.0566667</v>
+      </c>
+      <c r="H71" s="86">
+        <f>E71/D71</f>
         <v>1.10291116796622</v>
       </c>
-      <c r="I71" s="82">
+      <c r="I71" s="85">
+        <f t="shared" ref="I71:I81" si="15">E71-F71</f>
         <v>26149801.07</v>
       </c>
-      <c r="J71" s="83">
+      <c r="J71" s="86">
+        <f t="shared" si="10"/>
         <v>3.84870019934691</v>
       </c>
-      <c r="K71" s="84">
+      <c r="K71" s="85">
         <v>32032821.3333333</v>
       </c>
-      <c r="L71" s="84">
+      <c r="L71" s="85">
         <v>35329356.39</v>
       </c>
-      <c r="M71" s="84">
+      <c r="M71" s="85">
         <v>9179555.32</v>
       </c>
-      <c r="N71" s="84">
-        <v>3296535.05666667</v>
-      </c>
-      <c r="O71" s="85">
+      <c r="N71" s="85">
+        <f t="shared" si="11"/>
+        <v>3296535.0566667</v>
+      </c>
+      <c r="O71" s="86">
+        <f t="shared" si="12"/>
         <v>1.10291116796622</v>
       </c>
-      <c r="P71" s="84">
+      <c r="P71" s="85">
+        <f t="shared" si="13"/>
         <v>26149801.07</v>
       </c>
-      <c r="Q71" s="85">
+      <c r="Q71" s="86">
+        <f t="shared" si="14"/>
         <v>3.84870019934691</v>
       </c>
       <c r="R71" s="23"/>
@@ -5412,54 +5584,62 @@
       <c r="AB71" s="23"/>
       <c r="AC71" s="23"/>
     </row>
-    <row r="72" ht="15" spans="1:29">
-      <c r="A72" s="79" t="s">
+    <row r="72" spans="1:29">
+      <c r="A72" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="80"/>
-      <c r="C72" s="81" t="s">
+      <c r="B72" s="81"/>
+      <c r="C72" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="84">
+      <c r="D72" s="85">
         <v>958971.4525</v>
       </c>
-      <c r="E72" s="84">
+      <c r="E72" s="85">
         <v>983341.92</v>
       </c>
-      <c r="F72" s="84">
+      <c r="F72" s="85">
         <v>923278.72</v>
       </c>
-      <c r="G72" s="84">
+      <c r="G72" s="85">
+        <f>E72-D72</f>
         <v>24370.4675</v>
       </c>
-      <c r="H72" s="85">
+      <c r="H72" s="86">
+        <f>E72/D72</f>
         <v>1.02541313136743</v>
       </c>
-      <c r="I72" s="82">
+      <c r="I72" s="85">
+        <f t="shared" si="15"/>
         <v>60063.2000000001</v>
       </c>
-      <c r="J72" s="83">
+      <c r="J72" s="86">
+        <f t="shared" si="10"/>
         <v>1.06505424494133</v>
       </c>
-      <c r="K72" s="84">
+      <c r="K72" s="85">
         <v>958971.4525</v>
       </c>
-      <c r="L72" s="84">
+      <c r="L72" s="85">
         <v>983341.92</v>
       </c>
-      <c r="M72" s="84">
+      <c r="M72" s="85">
         <v>923278.72</v>
       </c>
-      <c r="N72" s="84">
+      <c r="N72" s="85">
+        <f t="shared" si="11"/>
         <v>24370.4675</v>
       </c>
-      <c r="O72" s="85">
+      <c r="O72" s="86">
+        <f t="shared" si="12"/>
         <v>1.02541313136743</v>
       </c>
-      <c r="P72" s="84">
+      <c r="P72" s="85">
+        <f t="shared" si="13"/>
         <v>60063.2000000001</v>
       </c>
-      <c r="Q72" s="85">
+      <c r="Q72" s="86">
+        <f t="shared" si="14"/>
         <v>1.06505424494133</v>
       </c>
       <c r="R72" s="23"/>
@@ -5475,54 +5655,63 @@
       <c r="AB72" s="23"/>
       <c r="AC72" s="23"/>
     </row>
-    <row r="73" ht="15" spans="1:29">
-      <c r="A73" s="79" t="s">
+    <row r="73" spans="1:29">
+      <c r="A73" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="80"/>
-      <c r="C73" s="81" t="s">
+      <c r="B73" s="81"/>
+      <c r="C73" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="82">
+      <c r="D73" s="83">
         <v>50908946.4396988</v>
       </c>
-      <c r="E73" s="82">
+      <c r="E73" s="83">
+        <f>SUM(E74:E79)</f>
         <v>53199016.02</v>
       </c>
-      <c r="F73" s="82">
+      <c r="F73" s="83">
         <v>31176814</v>
       </c>
-      <c r="G73" s="82">
-        <v>2290069.58030119</v>
-      </c>
-      <c r="H73" s="83">
+      <c r="G73" s="83">
+        <f>E73-D73</f>
+        <v>2290069.5803012</v>
+      </c>
+      <c r="H73" s="84">
+        <f>E73/D73</f>
         <v>1.04498363726725</v>
       </c>
-      <c r="I73" s="82">
+      <c r="I73" s="83">
+        <f t="shared" si="15"/>
         <v>22022202.02</v>
       </c>
-      <c r="J73" s="83">
+      <c r="J73" s="84">
+        <f t="shared" si="10"/>
         <v>1.70636473694843</v>
       </c>
-      <c r="K73" s="82">
+      <c r="K73" s="83">
         <v>50908946.4396988</v>
       </c>
-      <c r="L73" s="82">
+      <c r="L73" s="83">
         <v>53199016.02</v>
       </c>
-      <c r="M73" s="82">
+      <c r="M73" s="83">
         <v>31176814</v>
       </c>
-      <c r="N73" s="82">
-        <v>2290069.58030119</v>
-      </c>
-      <c r="O73" s="83">
+      <c r="N73" s="83">
+        <f t="shared" si="11"/>
+        <v>2290069.5803012</v>
+      </c>
+      <c r="O73" s="84">
+        <f t="shared" si="12"/>
         <v>1.04498363726725</v>
       </c>
-      <c r="P73" s="82">
+      <c r="P73" s="83">
+        <f t="shared" si="13"/>
         <v>22022202.02</v>
       </c>
-      <c r="Q73" s="83">
+      <c r="Q73" s="84">
+        <f t="shared" si="14"/>
         <v>1.70636473694843</v>
       </c>
       <c r="R73" s="23"/>
@@ -5538,54 +5727,62 @@
       <c r="AB73" s="23"/>
       <c r="AC73" s="23"/>
     </row>
-    <row r="74" ht="15" spans="1:29">
-      <c r="A74" s="79" t="s">
+    <row r="74" spans="1:29">
+      <c r="A74" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="81" t="s">
+      <c r="B74" s="81"/>
+      <c r="C74" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="84">
+      <c r="D74" s="85">
         <v>47766210.3715097</v>
       </c>
-      <c r="E74" s="84">
+      <c r="E74" s="85">
         <v>50259080.46</v>
       </c>
-      <c r="F74" s="84">
+      <c r="F74" s="85">
         <v>30535165.79</v>
       </c>
-      <c r="G74" s="84">
-        <v>2492870.08849028</v>
-      </c>
-      <c r="H74" s="85">
+      <c r="G74" s="85">
+        <f>E74-D74</f>
+        <v>2492870.0884903</v>
+      </c>
+      <c r="H74" s="86">
+        <f>E74/D74</f>
         <v>1.05218898608664</v>
       </c>
-      <c r="I74" s="82">
+      <c r="I74" s="85">
+        <f t="shared" si="15"/>
         <v>19723914.67</v>
       </c>
-      <c r="J74" s="83">
+      <c r="J74" s="86">
+        <f t="shared" si="10"/>
         <v>1.64594097198121</v>
       </c>
-      <c r="K74" s="84">
+      <c r="K74" s="85">
         <v>47766210.3715097</v>
       </c>
-      <c r="L74" s="84">
+      <c r="L74" s="85">
         <v>50259080.46</v>
       </c>
-      <c r="M74" s="84">
+      <c r="M74" s="85">
         <v>30535165.79</v>
       </c>
-      <c r="N74" s="84">
-        <v>2492870.08849028</v>
-      </c>
-      <c r="O74" s="85">
+      <c r="N74" s="85">
+        <f t="shared" si="11"/>
+        <v>2492870.0884903</v>
+      </c>
+      <c r="O74" s="86">
+        <f t="shared" si="12"/>
         <v>1.05218898608664</v>
       </c>
-      <c r="P74" s="84">
+      <c r="P74" s="85">
+        <f t="shared" si="13"/>
         <v>19723914.67</v>
       </c>
-      <c r="Q74" s="85">
+      <c r="Q74" s="86">
+        <f t="shared" si="14"/>
         <v>1.64594097198121</v>
       </c>
       <c r="R74" s="23"/>
@@ -5601,54 +5798,62 @@
       <c r="AB74" s="23"/>
       <c r="AC74" s="23"/>
     </row>
-    <row r="75" ht="15" spans="1:29">
-      <c r="A75" s="79" t="s">
+    <row r="75" spans="1:29">
+      <c r="A75" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="80"/>
-      <c r="C75" s="81" t="s">
+      <c r="B75" s="81"/>
+      <c r="C75" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D75" s="84">
+      <c r="D75" s="85">
         <v>319.07375</v>
       </c>
-      <c r="E75" s="84">
-        <v>0</v>
-      </c>
-      <c r="F75" s="84">
+      <c r="E75" s="85">
+        <v>0</v>
+      </c>
+      <c r="F75" s="85">
         <v>1085.7</v>
       </c>
-      <c r="G75" s="84">
+      <c r="G75" s="85">
+        <f t="shared" ref="G75:G80" si="16">E75-D75</f>
         <v>-319.07375</v>
       </c>
-      <c r="H75" s="85">
-        <v>0</v>
-      </c>
-      <c r="I75" s="82">
+      <c r="H75" s="86">
+        <f t="shared" ref="H75:H80" si="17">E75/D75</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="85">
+        <f t="shared" si="15"/>
         <v>-1085.7</v>
       </c>
-      <c r="J75" s="83">
-        <v>0</v>
-      </c>
-      <c r="K75" s="84">
+      <c r="J75" s="86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="85">
         <v>319.07375</v>
       </c>
-      <c r="L75" s="84">
-        <v>0</v>
-      </c>
-      <c r="M75" s="84">
+      <c r="L75" s="85">
+        <v>0</v>
+      </c>
+      <c r="M75" s="85">
         <v>1085.7</v>
       </c>
-      <c r="N75" s="84">
+      <c r="N75" s="85">
+        <f t="shared" si="11"/>
         <v>-319.07375</v>
       </c>
-      <c r="O75" s="85">
-        <v>0</v>
-      </c>
-      <c r="P75" s="84">
+      <c r="O75" s="86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="85">
+        <f t="shared" si="13"/>
         <v>-1085.7</v>
       </c>
-      <c r="Q75" s="85">
+      <c r="Q75" s="86">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R75" s="23"/>
@@ -5664,54 +5869,62 @@
       <c r="AB75" s="23"/>
       <c r="AC75" s="23"/>
     </row>
-    <row r="76" ht="15" spans="1:29">
-      <c r="A76" s="79" t="s">
+    <row r="76" spans="1:29">
+      <c r="A76" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="81" t="s">
+      <c r="B76" s="81"/>
+      <c r="C76" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D76" s="84">
+      <c r="D76" s="85">
         <v>2652406.54900391</v>
       </c>
-      <c r="E76" s="84">
+      <c r="E76" s="85">
         <v>2328769.95</v>
       </c>
-      <c r="F76" s="84">
+      <c r="F76" s="85">
         <v>202451.7</v>
       </c>
-      <c r="G76" s="84">
-        <v>-323636.599003915</v>
-      </c>
-      <c r="H76" s="85">
-        <v>0.877983788297667</v>
-      </c>
-      <c r="I76" s="82">
+      <c r="G76" s="85">
+        <f t="shared" si="16"/>
+        <v>-323636.59900391</v>
+      </c>
+      <c r="H76" s="86">
+        <f t="shared" si="17"/>
+        <v>0.877983788297669</v>
+      </c>
+      <c r="I76" s="85">
+        <f t="shared" si="15"/>
         <v>2126318.25</v>
       </c>
-      <c r="J76" s="83">
+      <c r="J76" s="86">
+        <f t="shared" si="10"/>
         <v>11.5028421593891</v>
       </c>
-      <c r="K76" s="84">
+      <c r="K76" s="85">
         <v>2652406.54900391</v>
       </c>
-      <c r="L76" s="84">
+      <c r="L76" s="85">
         <v>2328769.95</v>
       </c>
-      <c r="M76" s="84">
+      <c r="M76" s="85">
         <v>202451.7</v>
       </c>
-      <c r="N76" s="84">
-        <v>-323636.599003915</v>
-      </c>
-      <c r="O76" s="85">
-        <v>0.877983788297667</v>
-      </c>
-      <c r="P76" s="84">
+      <c r="N76" s="85">
+        <f t="shared" si="11"/>
+        <v>-323636.59900391</v>
+      </c>
+      <c r="O76" s="86">
+        <f t="shared" si="12"/>
+        <v>0.877983788297669</v>
+      </c>
+      <c r="P76" s="85">
+        <f t="shared" si="13"/>
         <v>2126318.25</v>
       </c>
-      <c r="Q76" s="85">
+      <c r="Q76" s="86">
+        <f t="shared" si="14"/>
         <v>11.5028421593891</v>
       </c>
       <c r="R76" s="23"/>
@@ -5727,54 +5940,62 @@
       <c r="AB76" s="23"/>
       <c r="AC76" s="23"/>
     </row>
-    <row r="77" ht="15" spans="1:29">
-      <c r="A77" s="79" t="s">
+    <row r="77" spans="1:29">
+      <c r="A77" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="80"/>
-      <c r="C77" s="81" t="s">
+      <c r="B77" s="81"/>
+      <c r="C77" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="84">
+      <c r="D77" s="85">
         <v>244630.125333333</v>
       </c>
-      <c r="E77" s="84">
+      <c r="E77" s="85">
         <v>362655.48</v>
       </c>
-      <c r="F77" s="84">
+      <c r="F77" s="85">
         <v>349336.8</v>
       </c>
-      <c r="G77" s="84">
+      <c r="G77" s="85">
+        <f t="shared" si="16"/>
         <v>118025.354666667</v>
       </c>
-      <c r="H77" s="85">
+      <c r="H77" s="86">
+        <f t="shared" si="17"/>
         <v>1.48246451456396</v>
       </c>
-      <c r="I77" s="82">
+      <c r="I77" s="85">
+        <f t="shared" si="15"/>
         <v>13318.68</v>
       </c>
-      <c r="J77" s="83">
+      <c r="J77" s="86">
+        <f t="shared" si="10"/>
         <v>1.03812561402062</v>
       </c>
-      <c r="K77" s="84">
+      <c r="K77" s="85">
         <v>244630.125333333</v>
       </c>
-      <c r="L77" s="84">
+      <c r="L77" s="85">
         <v>362655.48</v>
       </c>
-      <c r="M77" s="84">
+      <c r="M77" s="85">
         <v>349336.8</v>
       </c>
-      <c r="N77" s="84">
+      <c r="N77" s="85">
+        <f t="shared" si="11"/>
         <v>118025.354666667</v>
       </c>
-      <c r="O77" s="85">
+      <c r="O77" s="86">
+        <f t="shared" si="12"/>
         <v>1.48246451456396</v>
       </c>
-      <c r="P77" s="84">
+      <c r="P77" s="85">
+        <f t="shared" si="13"/>
         <v>13318.68</v>
       </c>
-      <c r="Q77" s="85">
+      <c r="Q77" s="86">
+        <f t="shared" si="14"/>
         <v>1.03812561402062</v>
       </c>
       <c r="R77" s="23"/>
@@ -5790,55 +6011,63 @@
       <c r="AB77" s="23"/>
       <c r="AC77" s="23"/>
     </row>
-    <row r="78" ht="15" spans="1:29">
-      <c r="A78" s="79" t="s">
+    <row r="78" spans="1:29">
+      <c r="A78" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="80"/>
-      <c r="C78" s="81" t="s">
+      <c r="B78" s="81"/>
+      <c r="C78" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="84">
+      <c r="D78" s="85">
         <v>103350.23065</v>
       </c>
-      <c r="E78" s="84">
+      <c r="E78" s="85">
         <v>64840.6800000001</v>
       </c>
-      <c r="F78" s="84">
+      <c r="F78" s="85">
         <v>60452.9000000001</v>
       </c>
-      <c r="G78" s="84">
-        <v>-38509.55065</v>
-      </c>
-      <c r="H78" s="85">
+      <c r="G78" s="85">
+        <f t="shared" si="16"/>
+        <v>-38509.5506499999</v>
+      </c>
+      <c r="H78" s="86">
+        <f t="shared" si="17"/>
         <v>0.627387859632223</v>
       </c>
-      <c r="I78" s="82">
-        <v>4387.77999999997</v>
-      </c>
-      <c r="J78" s="83">
-        <v>1.07258179508344</v>
-      </c>
-      <c r="K78" s="84">
+      <c r="I78" s="85">
+        <f t="shared" si="15"/>
+        <v>4387.78</v>
+      </c>
+      <c r="J78" s="86">
+        <f t="shared" si="10"/>
+        <v>1.07258179508345</v>
+      </c>
+      <c r="K78" s="85">
         <v>103350.23065</v>
       </c>
-      <c r="L78" s="84">
+      <c r="L78" s="85">
         <v>64840.6800000001</v>
       </c>
-      <c r="M78" s="84">
+      <c r="M78" s="85">
         <v>60452.9000000001</v>
       </c>
-      <c r="N78" s="84">
-        <v>-38509.55065</v>
-      </c>
-      <c r="O78" s="85">
+      <c r="N78" s="85">
+        <f t="shared" si="11"/>
+        <v>-38509.5506499999</v>
+      </c>
+      <c r="O78" s="86">
+        <f t="shared" si="12"/>
         <v>0.627387859632223</v>
       </c>
-      <c r="P78" s="84">
-        <v>4387.77999999997</v>
-      </c>
-      <c r="Q78" s="85">
-        <v>1.07258179508344</v>
+      <c r="P78" s="85">
+        <f t="shared" si="13"/>
+        <v>4387.78</v>
+      </c>
+      <c r="Q78" s="86">
+        <f t="shared" si="14"/>
+        <v>1.07258179508345</v>
       </c>
       <c r="R78" s="23"/>
       <c r="S78" s="23"/>
@@ -5853,54 +6082,62 @@
       <c r="AB78" s="23"/>
       <c r="AC78" s="23"/>
     </row>
-    <row r="79" ht="15" spans="1:29">
-      <c r="A79" s="79" t="s">
+    <row r="79" spans="1:29">
+      <c r="A79" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="80"/>
-      <c r="C79" s="81" t="s">
+      <c r="B79" s="81"/>
+      <c r="C79" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="84">
+      <c r="D79" s="85">
         <v>142030.089451852</v>
       </c>
-      <c r="E79" s="84">
+      <c r="E79" s="85">
         <v>183669.45</v>
       </c>
-      <c r="F79" s="84">
+      <c r="F79" s="85">
         <v>28321.11</v>
       </c>
-      <c r="G79" s="84">
-        <v>41639.3605481481</v>
-      </c>
-      <c r="H79" s="85">
+      <c r="G79" s="85">
+        <f t="shared" si="16"/>
+        <v>41639.360548148</v>
+      </c>
+      <c r="H79" s="86">
+        <f t="shared" si="17"/>
         <v>1.29317281083783</v>
       </c>
-      <c r="I79" s="82">
+      <c r="I79" s="85">
+        <f t="shared" si="15"/>
         <v>155348.34</v>
       </c>
-      <c r="J79" s="83">
+      <c r="J79" s="86">
+        <f t="shared" si="10"/>
         <v>6.48524898918157</v>
       </c>
-      <c r="K79" s="84">
+      <c r="K79" s="85">
         <v>142030.089451852</v>
       </c>
-      <c r="L79" s="84">
+      <c r="L79" s="85">
         <v>183669.45</v>
       </c>
-      <c r="M79" s="84">
+      <c r="M79" s="85">
         <v>28321.11</v>
       </c>
-      <c r="N79" s="84">
-        <v>41639.3605481481</v>
-      </c>
-      <c r="O79" s="85">
+      <c r="N79" s="85">
+        <f t="shared" si="11"/>
+        <v>41639.360548148</v>
+      </c>
+      <c r="O79" s="86">
+        <f t="shared" si="12"/>
         <v>1.29317281083783</v>
       </c>
-      <c r="P79" s="84">
+      <c r="P79" s="85">
+        <f t="shared" si="13"/>
         <v>155348.34</v>
       </c>
-      <c r="Q79" s="85">
+      <c r="Q79" s="86">
+        <f t="shared" si="14"/>
         <v>6.48524898918157</v>
       </c>
       <c r="R79" s="23"/>
@@ -5916,54 +6153,62 @@
       <c r="AB79" s="23"/>
       <c r="AC79" s="23"/>
     </row>
-    <row r="80" ht="15" spans="1:29">
-      <c r="A80" s="79" t="s">
+    <row r="80" spans="1:29">
+      <c r="A80" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="80"/>
-      <c r="C80" s="81" t="s">
+      <c r="B80" s="81"/>
+      <c r="C80" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="84">
+      <c r="D80" s="85">
         <v>-30660.4557979019</v>
       </c>
-      <c r="E80" s="84">
+      <c r="E80" s="85">
         <v>426110.93</v>
       </c>
-      <c r="F80" s="84">
+      <c r="F80" s="85">
         <v>1804082.41</v>
       </c>
-      <c r="G80" s="84">
+      <c r="G80" s="85">
+        <f t="shared" si="16"/>
         <v>456771.385797902</v>
       </c>
-      <c r="H80" s="85">
+      <c r="H80" s="86">
+        <f t="shared" si="17"/>
         <v>-13.8977363157517</v>
       </c>
-      <c r="I80" s="82">
+      <c r="I80" s="85">
+        <f t="shared" si="15"/>
         <v>-1377971.48</v>
       </c>
-      <c r="J80" s="83">
+      <c r="J80" s="86">
+        <f t="shared" si="10"/>
         <v>0.236192608296647</v>
       </c>
-      <c r="K80" s="84">
+      <c r="K80" s="85">
         <v>-30660.4557979019</v>
       </c>
-      <c r="L80" s="84">
+      <c r="L80" s="85">
         <v>426110.93</v>
       </c>
-      <c r="M80" s="84">
+      <c r="M80" s="85">
         <v>1804082.41</v>
       </c>
-      <c r="N80" s="84">
+      <c r="N80" s="85">
+        <f t="shared" si="11"/>
         <v>456771.385797902</v>
       </c>
-      <c r="O80" s="85">
+      <c r="O80" s="86">
+        <f t="shared" si="12"/>
         <v>-13.8977363157517</v>
       </c>
-      <c r="P80" s="84">
+      <c r="P80" s="85">
+        <f t="shared" si="13"/>
         <v>-1377971.48</v>
       </c>
-      <c r="Q80" s="85">
+      <c r="Q80" s="86">
+        <f t="shared" si="14"/>
         <v>0.236192608296647</v>
       </c>
       <c r="R80" s="23"/>
@@ -5979,54 +6224,62 @@
       <c r="AB80" s="23"/>
       <c r="AC80" s="23"/>
     </row>
-    <row r="81" ht="15" spans="1:29">
-      <c r="A81" s="86" t="s">
+    <row r="81" spans="1:29">
+      <c r="A81" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="80"/>
-      <c r="C81" s="87" t="s">
+      <c r="B81" s="81"/>
+      <c r="C81" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="82">
+      <c r="D81" s="83">
         <v>1171800.22366995</v>
       </c>
-      <c r="E81" s="82">
+      <c r="E81" s="83">
         <v>3708022.34999999</v>
       </c>
-      <c r="F81" s="82">
+      <c r="F81" s="83">
         <v>2424820.28</v>
       </c>
-      <c r="G81" s="82">
-        <v>2536222.12633005</v>
-      </c>
-      <c r="H81" s="83">
-        <v>3.16438098841361</v>
-      </c>
-      <c r="I81" s="82">
+      <c r="G81" s="83">
+        <f>E81-D81</f>
+        <v>2536222.12633004</v>
+      </c>
+      <c r="H81" s="84">
+        <f>E81/D81</f>
+        <v>3.1643809884136</v>
+      </c>
+      <c r="I81" s="83">
+        <f t="shared" si="15"/>
         <v>1283202.06999999</v>
       </c>
-      <c r="J81" s="83">
+      <c r="J81" s="84">
+        <f t="shared" si="10"/>
         <v>1.52919471211285</v>
       </c>
-      <c r="K81" s="82">
+      <c r="K81" s="83">
         <v>1171800.22366995</v>
       </c>
-      <c r="L81" s="82">
+      <c r="L81" s="83">
         <v>3708022.34999999</v>
       </c>
-      <c r="M81" s="82">
+      <c r="M81" s="83">
         <v>2424820.28</v>
       </c>
-      <c r="N81" s="82">
-        <v>2536222.12633005</v>
-      </c>
-      <c r="O81" s="83">
-        <v>3.16438098841361</v>
-      </c>
-      <c r="P81" s="82">
+      <c r="N81" s="83">
+        <f t="shared" si="11"/>
+        <v>2536222.12633004</v>
+      </c>
+      <c r="O81" s="84">
+        <f t="shared" si="12"/>
+        <v>3.1643809884136</v>
+      </c>
+      <c r="P81" s="83">
+        <f t="shared" si="13"/>
         <v>1283202.06999999</v>
       </c>
-      <c r="Q81" s="83">
+      <c r="Q81" s="84">
+        <f t="shared" si="14"/>
         <v>1.52919471211285</v>
       </c>
       <c r="R81" s="23"/>
@@ -6051,7 +6304,7 @@
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="88"/>
+      <c r="I82" s="89"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -1737,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A2:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="L57" workbookViewId="0">
+      <selection activeCell="AA71" sqref="AA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4645,7 +4645,7 @@
       <c r="AB54" s="23"/>
       <c r="AC54" s="23"/>
     </row>
-    <row r="55" ht="15" spans="1:29">
+    <row r="55" ht="23.25" spans="1:29">
       <c r="A55" s="31" t="s">
         <v>46</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="AB56" s="23"/>
       <c r="AC56" s="23"/>
     </row>
-    <row r="57" ht="15" spans="1:29">
+    <row r="57" ht="23.25" spans="1:29">
       <c r="A57" s="36"/>
       <c r="B57" s="38" t="s">
         <v>49</v>
@@ -4803,7 +4803,7 @@
       <c r="AB57" s="23"/>
       <c r="AC57" s="23"/>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" ht="23.25" spans="1:29">
       <c r="A58" s="36"/>
       <c r="B58" s="38" t="s">
         <v>50</v>
@@ -4855,7 +4855,7 @@
       <c r="AB58" s="23"/>
       <c r="AC58" s="23"/>
     </row>
-    <row r="59" ht="34.5" spans="1:29">
+    <row r="59" ht="68.25" spans="1:29">
       <c r="A59" s="36"/>
       <c r="B59" s="38" t="s">
         <v>51</v>
@@ -4907,7 +4907,7 @@
       <c r="AB59" s="23"/>
       <c r="AC59" s="23"/>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" ht="15" spans="1:29">
       <c r="A60" s="37"/>
       <c r="B60" s="38" t="s">
         <v>43</v>
@@ -5249,7 +5249,6 @@
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
-      <c r="L66"/>
       <c r="M66" s="23"/>
       <c r="N66" s="23"/>
       <c r="O66" s="23"/>
@@ -5393,7 +5392,7 @@
         <v>4369520.3208333</v>
       </c>
       <c r="H69" s="84">
-        <f>E69/D69</f>
+        <f t="shared" ref="H69:H74" si="10">E69/D69</f>
         <v>1.08384959382964</v>
       </c>
       <c r="I69" s="83">
@@ -5405,7 +5404,8 @@
         <v>1.77626653998127</v>
       </c>
       <c r="K69" s="83">
-        <v>52111407.1191667</v>
+        <f>SUM(K70:K72)</f>
+        <v>52111407.1191666</v>
       </c>
       <c r="L69" s="83">
         <v>56480927.44</v>
@@ -5415,11 +5415,11 @@
       </c>
       <c r="N69" s="83">
         <f>L69-K69</f>
-        <v>4369520.3208333</v>
+        <v>4369520.3208334</v>
       </c>
       <c r="O69" s="84">
         <f>L69/K69</f>
-        <v>1.08384959382964</v>
+        <v>1.08384959382965</v>
       </c>
       <c r="P69" s="83">
         <f>L69-M69</f>
@@ -5464,7 +5464,7 @@
         <v>-1526488.7</v>
       </c>
       <c r="H70" s="86">
-        <f>E70/D70</f>
+        <f t="shared" si="10"/>
         <v>1.05484497638839</v>
       </c>
       <c r="I70" s="85">
@@ -5472,7 +5472,7 @@
         <v>-1526488.7</v>
       </c>
       <c r="J70" s="86">
-        <f t="shared" ref="J70:J81" si="10">E70/F70</f>
+        <f t="shared" ref="J70:J81" si="11">E70/F70</f>
         <v>0.929637771186444</v>
       </c>
       <c r="K70" s="85">
@@ -5485,19 +5485,19 @@
         <v>21694717.83</v>
       </c>
       <c r="N70" s="85">
-        <f t="shared" ref="N70:N81" si="11">L70-K70</f>
+        <f t="shared" ref="N70:N81" si="12">L70-K70</f>
         <v>1048614.7966667</v>
       </c>
       <c r="O70" s="86">
-        <f t="shared" ref="O70:O81" si="12">L70/K70</f>
+        <f t="shared" ref="O70:O81" si="13">L70/K70</f>
         <v>1.05484497638839</v>
       </c>
       <c r="P70" s="85">
-        <f t="shared" ref="P70:P81" si="13">L70-M70</f>
+        <f t="shared" ref="P70:P81" si="14">L70-M70</f>
         <v>-1526488.7</v>
       </c>
       <c r="Q70" s="86">
-        <f t="shared" ref="Q70:Q81" si="14">L70/M70</f>
+        <f t="shared" ref="Q70:Q81" si="15">L70/M70</f>
         <v>0.929637771186444</v>
       </c>
       <c r="R70" s="23"/>
@@ -5535,15 +5535,15 @@
         <v>3296535.0566667</v>
       </c>
       <c r="H71" s="86">
-        <f>E71/D71</f>
+        <f t="shared" si="10"/>
         <v>1.10291116796622</v>
       </c>
       <c r="I71" s="85">
-        <f t="shared" ref="I71:I81" si="15">E71-F71</f>
+        <f t="shared" ref="I71:I81" si="16">E71-F71</f>
         <v>26149801.07</v>
       </c>
       <c r="J71" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.84870019934691</v>
       </c>
       <c r="K71" s="85">
@@ -5556,19 +5556,19 @@
         <v>9179555.32</v>
       </c>
       <c r="N71" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3296535.0566667</v>
       </c>
       <c r="O71" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.10291116796622</v>
       </c>
       <c r="P71" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>26149801.07</v>
       </c>
       <c r="Q71" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.84870019934691</v>
       </c>
       <c r="R71" s="23"/>
@@ -5584,7 +5584,7 @@
       <c r="AB71" s="23"/>
       <c r="AC71" s="23"/>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" ht="15" spans="1:29">
       <c r="A72" s="80" t="s">
         <v>69</v>
       </c>
@@ -5606,15 +5606,15 @@
         <v>24370.4675</v>
       </c>
       <c r="H72" s="86">
-        <f>E72/D72</f>
+        <f t="shared" si="10"/>
         <v>1.02541313136743</v>
       </c>
       <c r="I72" s="85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>60063.2000000001</v>
       </c>
       <c r="J72" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.06505424494133</v>
       </c>
       <c r="K72" s="85">
@@ -5627,19 +5627,19 @@
         <v>923278.72</v>
       </c>
       <c r="N72" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>24370.4675</v>
       </c>
       <c r="O72" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.02541313136743</v>
       </c>
       <c r="P72" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>60063.2000000001</v>
       </c>
       <c r="Q72" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.06505424494133</v>
       </c>
       <c r="R72" s="23"/>
@@ -5651,7 +5651,6 @@
       <c r="X72" s="23"/>
       <c r="Y72" s="23"/>
       <c r="Z72" s="23"/>
-      <c r="AA72" s="23"/>
       <c r="AB72" s="23"/>
       <c r="AC72" s="23"/>
     </row>
@@ -5678,18 +5677,19 @@
         <v>2290069.5803012</v>
       </c>
       <c r="H73" s="84">
-        <f>E73/D73</f>
+        <f t="shared" si="10"/>
         <v>1.04498363726725</v>
       </c>
       <c r="I73" s="83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22022202.02</v>
       </c>
       <c r="J73" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.70636473694843</v>
       </c>
       <c r="K73" s="83">
+        <f>SUM(K74:K79)</f>
         <v>50908946.4396988</v>
       </c>
       <c r="L73" s="83">
@@ -5699,19 +5699,19 @@
         <v>31176814</v>
       </c>
       <c r="N73" s="83">
-        <f t="shared" si="11"/>
-        <v>2290069.5803012</v>
+        <f t="shared" si="12"/>
+        <v>2290069.58030122</v>
       </c>
       <c r="O73" s="84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.04498363726725</v>
       </c>
       <c r="P73" s="83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22022202.02</v>
       </c>
       <c r="Q73" s="84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.70636473694843</v>
       </c>
       <c r="R73" s="23"/>
@@ -5749,15 +5749,15 @@
         <v>2492870.0884903</v>
       </c>
       <c r="H74" s="86">
-        <f>E74/D74</f>
+        <f t="shared" si="10"/>
         <v>1.05218898608664</v>
       </c>
       <c r="I74" s="85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19723914.67</v>
       </c>
       <c r="J74" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.64594097198121</v>
       </c>
       <c r="K74" s="85">
@@ -5770,19 +5770,19 @@
         <v>30535165.79</v>
       </c>
       <c r="N74" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2492870.0884903</v>
       </c>
       <c r="O74" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.05218898608664</v>
       </c>
       <c r="P74" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>19723914.67</v>
       </c>
       <c r="Q74" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.64594097198121</v>
       </c>
       <c r="R74" s="23"/>
@@ -5798,7 +5798,7 @@
       <c r="AB74" s="23"/>
       <c r="AC74" s="23"/>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" ht="15" spans="1:29">
       <c r="A75" s="80" t="s">
         <v>72</v>
       </c>
@@ -5816,19 +5816,19 @@
         <v>1085.7</v>
       </c>
       <c r="G75" s="85">
-        <f t="shared" ref="G75:G80" si="16">E75-D75</f>
+        <f t="shared" ref="G75:G81" si="17">E75-D75</f>
         <v>-319.07375</v>
       </c>
       <c r="H75" s="86">
-        <f t="shared" ref="H75:H80" si="17">E75/D75</f>
+        <f t="shared" ref="H75:H81" si="18">E75/D75</f>
         <v>0</v>
       </c>
       <c r="I75" s="85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-1085.7</v>
       </c>
       <c r="J75" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K75" s="85">
@@ -5841,19 +5841,19 @@
         <v>1085.7</v>
       </c>
       <c r="N75" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-319.07375</v>
       </c>
       <c r="O75" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P75" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1085.7</v>
       </c>
       <c r="Q75" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R75" s="23"/>
@@ -5869,7 +5869,7 @@
       <c r="AB75" s="23"/>
       <c r="AC75" s="23"/>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" ht="15" spans="1:29">
       <c r="A76" s="80" t="s">
         <v>73</v>
       </c>
@@ -5887,19 +5887,19 @@
         <v>202451.7</v>
       </c>
       <c r="G76" s="85">
+        <f t="shared" si="17"/>
+        <v>-323636.59900391</v>
+      </c>
+      <c r="H76" s="86">
+        <f t="shared" si="18"/>
+        <v>0.877983788297669</v>
+      </c>
+      <c r="I76" s="85">
         <f t="shared" si="16"/>
-        <v>-323636.59900391</v>
-      </c>
-      <c r="H76" s="86">
-        <f t="shared" si="17"/>
-        <v>0.877983788297669</v>
-      </c>
-      <c r="I76" s="85">
-        <f t="shared" si="15"/>
         <v>2126318.25</v>
       </c>
       <c r="J76" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11.5028421593891</v>
       </c>
       <c r="K76" s="85">
@@ -5912,19 +5912,19 @@
         <v>202451.7</v>
       </c>
       <c r="N76" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-323636.59900391</v>
       </c>
       <c r="O76" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.877983788297669</v>
       </c>
       <c r="P76" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2126318.25</v>
       </c>
       <c r="Q76" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.5028421593891</v>
       </c>
       <c r="R76" s="23"/>
@@ -5940,7 +5940,7 @@
       <c r="AB76" s="23"/>
       <c r="AC76" s="23"/>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" ht="15" spans="1:29">
       <c r="A77" s="80" t="s">
         <v>74</v>
       </c>
@@ -5958,19 +5958,19 @@
         <v>349336.8</v>
       </c>
       <c r="G77" s="85">
+        <f t="shared" si="17"/>
+        <v>118025.354666667</v>
+      </c>
+      <c r="H77" s="86">
+        <f t="shared" si="18"/>
+        <v>1.48246451456396</v>
+      </c>
+      <c r="I77" s="85">
         <f t="shared" si="16"/>
-        <v>118025.354666667</v>
-      </c>
-      <c r="H77" s="86">
-        <f t="shared" si="17"/>
-        <v>1.48246451456396</v>
-      </c>
-      <c r="I77" s="85">
-        <f t="shared" si="15"/>
         <v>13318.68</v>
       </c>
       <c r="J77" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.03812561402062</v>
       </c>
       <c r="K77" s="85">
@@ -5983,19 +5983,19 @@
         <v>349336.8</v>
       </c>
       <c r="N77" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>118025.354666667</v>
       </c>
       <c r="O77" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.48246451456396</v>
       </c>
       <c r="P77" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13318.68</v>
       </c>
       <c r="Q77" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.03812561402062</v>
       </c>
       <c r="R77" s="23"/>
@@ -6011,7 +6011,7 @@
       <c r="AB77" s="23"/>
       <c r="AC77" s="23"/>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" ht="15" spans="1:29">
       <c r="A78" s="80" t="s">
         <v>75</v>
       </c>
@@ -6029,19 +6029,19 @@
         <v>60452.9000000001</v>
       </c>
       <c r="G78" s="85">
+        <f t="shared" si="17"/>
+        <v>-38509.5506499999</v>
+      </c>
+      <c r="H78" s="86">
+        <f t="shared" si="18"/>
+        <v>0.627387859632223</v>
+      </c>
+      <c r="I78" s="85">
         <f t="shared" si="16"/>
-        <v>-38509.5506499999</v>
-      </c>
-      <c r="H78" s="86">
-        <f t="shared" si="17"/>
-        <v>0.627387859632223</v>
-      </c>
-      <c r="I78" s="85">
-        <f t="shared" si="15"/>
         <v>4387.78</v>
       </c>
       <c r="J78" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.07258179508345</v>
       </c>
       <c r="K78" s="85">
@@ -6054,19 +6054,19 @@
         <v>60452.9000000001</v>
       </c>
       <c r="N78" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-38509.5506499999</v>
       </c>
       <c r="O78" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.627387859632223</v>
       </c>
       <c r="P78" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4387.78</v>
       </c>
       <c r="Q78" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.07258179508345</v>
       </c>
       <c r="R78" s="23"/>
@@ -6082,7 +6082,7 @@
       <c r="AB78" s="23"/>
       <c r="AC78" s="23"/>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" ht="15" spans="1:29">
       <c r="A79" s="80" t="s">
         <v>76</v>
       </c>
@@ -6100,19 +6100,19 @@
         <v>28321.11</v>
       </c>
       <c r="G79" s="85">
+        <f t="shared" si="17"/>
+        <v>41639.360548148</v>
+      </c>
+      <c r="H79" s="86">
+        <f t="shared" si="18"/>
+        <v>1.29317281083783</v>
+      </c>
+      <c r="I79" s="85">
         <f t="shared" si="16"/>
-        <v>41639.360548148</v>
-      </c>
-      <c r="H79" s="86">
-        <f t="shared" si="17"/>
-        <v>1.29317281083783</v>
-      </c>
-      <c r="I79" s="85">
-        <f t="shared" si="15"/>
         <v>155348.34</v>
       </c>
       <c r="J79" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.48524898918157</v>
       </c>
       <c r="K79" s="85">
@@ -6125,19 +6125,19 @@
         <v>28321.11</v>
       </c>
       <c r="N79" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>41639.360548148</v>
       </c>
       <c r="O79" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.29317281083783</v>
       </c>
       <c r="P79" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>155348.34</v>
       </c>
       <c r="Q79" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.48524898918157</v>
       </c>
       <c r="R79" s="23"/>
@@ -6153,7 +6153,7 @@
       <c r="AB79" s="23"/>
       <c r="AC79" s="23"/>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" ht="15" spans="1:29">
       <c r="A80" s="80" t="s">
         <v>77</v>
       </c>
@@ -6171,19 +6171,19 @@
         <v>1804082.41</v>
       </c>
       <c r="G80" s="85">
+        <f t="shared" si="17"/>
+        <v>456771.385797902</v>
+      </c>
+      <c r="H80" s="86">
+        <f t="shared" si="18"/>
+        <v>-13.8977363157517</v>
+      </c>
+      <c r="I80" s="85">
         <f t="shared" si="16"/>
-        <v>456771.385797902</v>
-      </c>
-      <c r="H80" s="86">
-        <f t="shared" si="17"/>
-        <v>-13.8977363157517</v>
-      </c>
-      <c r="I80" s="85">
-        <f t="shared" si="15"/>
         <v>-1377971.48</v>
       </c>
       <c r="J80" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.236192608296647</v>
       </c>
       <c r="K80" s="85">
@@ -6196,19 +6196,19 @@
         <v>1804082.41</v>
       </c>
       <c r="N80" s="85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>456771.385797902</v>
       </c>
       <c r="O80" s="86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-13.8977363157517</v>
       </c>
       <c r="P80" s="85">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-1377971.48</v>
       </c>
       <c r="Q80" s="86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.236192608296647</v>
       </c>
       <c r="R80" s="23"/>
@@ -6224,7 +6224,7 @@
       <c r="AB80" s="23"/>
       <c r="AC80" s="23"/>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" ht="15" spans="1:29">
       <c r="A81" s="87" t="s">
         <v>78</v>
       </c>
@@ -6242,19 +6242,19 @@
         <v>2424820.28</v>
       </c>
       <c r="G81" s="83">
-        <f>E81-D81</f>
+        <f t="shared" si="17"/>
         <v>2536222.12633004</v>
       </c>
       <c r="H81" s="84">
-        <f>E81/D81</f>
+        <f t="shared" si="18"/>
         <v>3.1643809884136</v>
       </c>
       <c r="I81" s="83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1283202.06999999</v>
       </c>
       <c r="J81" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.52919471211285</v>
       </c>
       <c r="K81" s="83">
@@ -6267,19 +6267,19 @@
         <v>2424820.28</v>
       </c>
       <c r="N81" s="83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2536222.12633004</v>
       </c>
       <c r="O81" s="84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1643809884136</v>
       </c>
       <c r="P81" s="83">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1283202.06999999</v>
       </c>
       <c r="Q81" s="84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.52919471211285</v>
       </c>
       <c r="R81" s="23"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -1737,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A2:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="L57" workbookViewId="0">
-      <selection activeCell="AA71" sqref="AA71"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5322,7 +5322,7 @@
       <c r="AB67" s="23"/>
       <c r="AC67" s="23"/>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" ht="15" spans="1:29">
       <c r="A68" s="77"/>
       <c r="B68" s="78"/>
       <c r="C68" s="37"/>
@@ -5369,7 +5369,7 @@
       <c r="AB68" s="23"/>
       <c r="AC68" s="23"/>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" ht="15" spans="1:29">
       <c r="A69" s="80" t="s">
         <v>67</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="83">
-        <v>52111407.1191667</v>
+        <v>35127792.6561062</v>
       </c>
       <c r="E69" s="83">
         <f>SUM(E70:E72)</f>
@@ -5389,11 +5389,11 @@
       </c>
       <c r="G69" s="83">
         <f>E69-D69</f>
-        <v>4369520.3208333</v>
+        <v>21353134.7838938</v>
       </c>
       <c r="H69" s="84">
         <f t="shared" ref="H69:H74" si="10">E69/D69</f>
-        <v>1.08384959382964</v>
+        <v>1.6078700985552</v>
       </c>
       <c r="I69" s="83">
         <f>E69-F69</f>
@@ -5408,6 +5408,7 @@
         <v>52111407.1191666</v>
       </c>
       <c r="L69" s="83">
+        <f>SUM(L70:L72)</f>
         <v>56480927.44</v>
       </c>
       <c r="M69" s="83">
@@ -5418,7 +5419,7 @@
         <v>4369520.3208334</v>
       </c>
       <c r="O69" s="84">
-        <f>L69/K69</f>
+        <f>IF(K69&lt;&gt;0,L69/K69,"-")</f>
         <v>1.08384959382965</v>
       </c>
       <c r="P69" s="83">
@@ -5426,7 +5427,7 @@
         <v>24683375.57</v>
       </c>
       <c r="Q69" s="84">
-        <f>L69/M69</f>
+        <f>IF(M69&lt;&gt;0,L69/M69,"-")</f>
         <v>1.77626653998127</v>
       </c>
       <c r="R69" s="23"/>
@@ -5442,7 +5443,7 @@
       <c r="AB69" s="23"/>
       <c r="AC69" s="23"/>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" ht="15" spans="1:29">
       <c r="A70" s="80" t="s">
         <v>29</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="85">
-        <v>19119614.3333333</v>
+        <v>10876005</v>
       </c>
       <c r="E70" s="85">
         <v>20168229.13</v>
@@ -5465,7 +5466,7 @@
       </c>
       <c r="H70" s="86">
         <f t="shared" si="10"/>
-        <v>1.05484497638839</v>
+        <v>1.85437843491245</v>
       </c>
       <c r="I70" s="85">
         <f>E70-F70</f>
@@ -5489,7 +5490,7 @@
         <v>1048614.7966667</v>
       </c>
       <c r="O70" s="86">
-        <f t="shared" ref="O70:O81" si="13">L70/K70</f>
+        <f t="shared" ref="O70:O81" si="13">IF(K70&lt;&gt;0,L70/K70,"-")</f>
         <v>1.05484497638839</v>
       </c>
       <c r="P70" s="85">
@@ -5497,7 +5498,7 @@
         <v>-1526488.7</v>
       </c>
       <c r="Q70" s="86">
-        <f t="shared" ref="Q70:Q81" si="15">L70/M70</f>
+        <f t="shared" ref="Q70:Q81" si="15">IF(M70&lt;&gt;0,L70/M70,"-")</f>
         <v>0.929637771186444</v>
       </c>
       <c r="R70" s="23"/>
@@ -5513,7 +5514,7 @@
       <c r="AB70" s="23"/>
       <c r="AC70" s="23"/>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" ht="15" spans="1:29">
       <c r="A71" s="80" t="s">
         <v>68</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="85">
-        <v>32032821.3333333</v>
+        <v>23426769.8761062</v>
       </c>
       <c r="E71" s="85">
         <v>35329356.39</v>
@@ -5532,11 +5533,11 @@
       </c>
       <c r="G71" s="85">
         <f>E71-D71</f>
-        <v>3296535.0566667</v>
+        <v>11902586.5138938</v>
       </c>
       <c r="H71" s="86">
         <f t="shared" si="10"/>
-        <v>1.10291116796622</v>
+        <v>1.50807629804883</v>
       </c>
       <c r="I71" s="85">
         <f t="shared" ref="I71:I81" si="16">E71-F71</f>
@@ -5593,7 +5594,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="85">
-        <v>958971.4525</v>
+        <v>825017.78</v>
       </c>
       <c r="E72" s="85">
         <v>983341.92</v>
@@ -5603,11 +5604,11 @@
       </c>
       <c r="G72" s="85">
         <f>E72-D72</f>
-        <v>24370.4675</v>
+        <v>158324.14</v>
       </c>
       <c r="H72" s="86">
         <f t="shared" si="10"/>
-        <v>1.02541313136743</v>
+        <v>1.19190391266477</v>
       </c>
       <c r="I72" s="85">
         <f t="shared" si="16"/>
@@ -5654,7 +5655,7 @@
       <c r="AB72" s="23"/>
       <c r="AC72" s="23"/>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" ht="15" spans="1:29">
       <c r="A73" s="80" t="s">
         <v>70</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="83">
-        <v>50908946.4396988</v>
+        <v>34621177.9939547</v>
       </c>
       <c r="E73" s="83">
         <f>SUM(E74:E79)</f>
@@ -5674,11 +5675,11 @@
       </c>
       <c r="G73" s="83">
         <f>E73-D73</f>
-        <v>2290069.5803012</v>
+        <v>18577838.0260453</v>
       </c>
       <c r="H73" s="84">
         <f t="shared" si="10"/>
-        <v>1.04498363726725</v>
+        <v>1.53660329031234</v>
       </c>
       <c r="I73" s="83">
         <f t="shared" si="16"/>
@@ -5693,6 +5694,7 @@
         <v>50908946.4396988</v>
       </c>
       <c r="L73" s="83">
+        <f>SUM(L74:L79)</f>
         <v>53199016.02</v>
       </c>
       <c r="M73" s="83">
@@ -5700,7 +5702,7 @@
       </c>
       <c r="N73" s="83">
         <f t="shared" si="12"/>
-        <v>2290069.58030122</v>
+        <v>2290069.5803012</v>
       </c>
       <c r="O73" s="84">
         <f t="shared" si="13"/>
@@ -5727,7 +5729,7 @@
       <c r="AB73" s="23"/>
       <c r="AC73" s="23"/>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" ht="15" spans="1:29">
       <c r="A74" s="80" t="s">
         <v>71</v>
       </c>
@@ -5736,7 +5738,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="85">
-        <v>47766210.3715097</v>
+        <v>33183618.0825148</v>
       </c>
       <c r="E74" s="85">
         <v>50259080.46</v>
@@ -5746,11 +5748,11 @@
       </c>
       <c r="G74" s="85">
         <f>E74-D74</f>
-        <v>2492870.0884903</v>
+        <v>17075462.3774852</v>
       </c>
       <c r="H74" s="86">
         <f t="shared" si="10"/>
-        <v>1.05218898608664</v>
+        <v>1.51457506336485</v>
       </c>
       <c r="I74" s="85">
         <f t="shared" si="16"/>
@@ -5807,7 +5809,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="85">
-        <v>319.07375</v>
+        <v>981.006666666667</v>
       </c>
       <c r="E75" s="85">
         <v>0</v>
@@ -5817,7 +5819,7 @@
       </c>
       <c r="G75" s="85">
         <f t="shared" ref="G75:G81" si="17">E75-D75</f>
-        <v>-319.07375</v>
+        <v>-981.006666666667</v>
       </c>
       <c r="H75" s="86">
         <f t="shared" ref="H75:H81" si="18">E75/D75</f>
@@ -5878,7 +5880,7 @@
         <v>21</v>
       </c>
       <c r="D76" s="85">
-        <v>2652406.54900391</v>
+        <v>1051656.26224918</v>
       </c>
       <c r="E76" s="85">
         <v>2328769.95</v>
@@ -5888,11 +5890,11 @@
       </c>
       <c r="G76" s="85">
         <f t="shared" si="17"/>
-        <v>-323636.59900391</v>
+        <v>1277113.68775082</v>
       </c>
       <c r="H76" s="86">
         <f t="shared" si="18"/>
-        <v>0.877983788297669</v>
+        <v>2.2143831911574</v>
       </c>
       <c r="I76" s="85">
         <f t="shared" si="16"/>
@@ -5949,7 +5951,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="85">
-        <v>244630.125333333</v>
+        <v>245218.265555556</v>
       </c>
       <c r="E77" s="85">
         <v>362655.48</v>
@@ -5959,11 +5961,11 @@
       </c>
       <c r="G77" s="85">
         <f t="shared" si="17"/>
-        <v>118025.354666667</v>
+        <v>117437.214444444</v>
       </c>
       <c r="H77" s="86">
         <f t="shared" si="18"/>
-        <v>1.48246451456396</v>
+        <v>1.47890891887023</v>
       </c>
       <c r="I77" s="85">
         <f t="shared" si="16"/>
@@ -6020,7 +6022,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="85">
-        <v>103350.23065</v>
+        <v>108177.162801852</v>
       </c>
       <c r="E78" s="85">
         <v>64840.6800000001</v>
@@ -6030,11 +6032,11 @@
       </c>
       <c r="G78" s="85">
         <f t="shared" si="17"/>
-        <v>-38509.5506499999</v>
+        <v>-43336.4828018519</v>
       </c>
       <c r="H78" s="86">
         <f t="shared" si="18"/>
-        <v>0.627387859632223</v>
+        <v>0.599393423903793</v>
       </c>
       <c r="I78" s="85">
         <f t="shared" si="16"/>
@@ -6091,7 +6093,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="85">
-        <v>142030.089451852</v>
+        <v>31527.2141666667</v>
       </c>
       <c r="E79" s="85">
         <v>183669.45</v>
@@ -6101,11 +6103,11 @@
       </c>
       <c r="G79" s="85">
         <f t="shared" si="17"/>
-        <v>41639.360548148</v>
+        <v>152142.235833333</v>
       </c>
       <c r="H79" s="86">
         <f t="shared" si="18"/>
-        <v>1.29317281083783</v>
+        <v>5.82574308751299</v>
       </c>
       <c r="I79" s="85">
         <f t="shared" si="16"/>
@@ -6162,7 +6164,7 @@
         <v>21</v>
       </c>
       <c r="D80" s="85">
-        <v>-30660.4557979019</v>
+        <v>-15418.4689269971</v>
       </c>
       <c r="E80" s="85">
         <v>426110.93</v>
@@ -6172,11 +6174,11 @@
       </c>
       <c r="G80" s="85">
         <f t="shared" si="17"/>
-        <v>456771.385797902</v>
+        <v>441529.398926997</v>
       </c>
       <c r="H80" s="86">
         <f t="shared" si="18"/>
-        <v>-13.8977363157517</v>
+        <v>-27.6363971038588</v>
       </c>
       <c r="I80" s="85">
         <f t="shared" si="16"/>
@@ -6233,9 +6235,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="83">
-        <v>1171800.22366995</v>
+        <v>491196.193224533</v>
       </c>
       <c r="E81" s="83">
+        <f>E69-E73+E80</f>
         <v>3708022.34999999</v>
       </c>
       <c r="F81" s="83">
@@ -6243,11 +6246,11 @@
       </c>
       <c r="G81" s="83">
         <f t="shared" si="17"/>
-        <v>2536222.12633004</v>
+        <v>3216826.15677546</v>
       </c>
       <c r="H81" s="84">
         <f t="shared" si="18"/>
-        <v>3.1643809884136</v>
+        <v>7.54896393976124</v>
       </c>
       <c r="I81" s="83">
         <f t="shared" si="16"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -1477,6 +1477,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1737,11 +1744,11 @@
   <sheetPr/>
   <dimension ref="A2:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="24.1416666666667" customWidth="1"/>
@@ -1763,7 +1770,7 @@
     <col min="18" max="18" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.75" spans="1:29">
+    <row r="2" ht="14.75" spans="1:29">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>6.3339</v>
@@ -1795,7 +1802,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" ht="15.75" spans="1:29">
+    <row r="3" ht="14.75" spans="1:29">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
@@ -1850,7 +1857,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" ht="15.75" spans="1:29">
+    <row r="4" ht="14.75" spans="1:29">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
@@ -1885,7 +1892,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" ht="15.75" spans="1:29">
+    <row r="5" ht="14.75" spans="1:29">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -1966,7 +1973,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" ht="15.75" spans="1:29">
+    <row r="6" ht="14.75" spans="1:29">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -2001,7 +2008,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" ht="15.75" spans="1:29">
+    <row r="7" spans="1:29">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2060,7 +2067,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" ht="15.75" spans="1:29">
+    <row r="8" spans="1:29">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>21</v>
@@ -2123,7 +2130,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" ht="15.75" spans="1:29">
+    <row r="9" spans="1:29">
       <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
@@ -2182,7 +2189,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" ht="15.75" spans="1:29">
+    <row r="10" ht="14.75" spans="1:29">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>21</v>
@@ -2245,7 +2252,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" ht="15.75" spans="1:29">
+    <row r="11" ht="14.75" spans="1:29">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -2304,7 +2311,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" ht="15.75" spans="1:29">
+    <row r="12" ht="14.75" spans="1:29">
       <c r="A12" s="19"/>
       <c r="B12" s="14" t="s">
         <v>21</v>
@@ -2367,7 +2374,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" ht="15.75" spans="1:29">
+    <row r="13" ht="14.75" spans="1:29">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -2426,7 +2433,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" ht="15.75" spans="1:29">
+    <row r="14" ht="14.75" spans="1:29">
       <c r="A14" s="19"/>
       <c r="B14" s="14" t="s">
         <v>21</v>
@@ -2489,7 +2496,7 @@
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
     </row>
-    <row r="15" ht="15" spans="1:29">
+    <row r="15" ht="14.75" spans="1:29">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -2548,7 +2555,7 @@
       <c r="AB15" s="23"/>
       <c r="AC15" s="23"/>
     </row>
-    <row r="16" ht="15" spans="1:29">
+    <row r="16" spans="1:29">
       <c r="A16" s="19"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
@@ -2611,7 +2618,7 @@
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
     </row>
-    <row r="17" ht="15" spans="1:29">
+    <row r="17" spans="1:29">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -2622,9 +2629,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
+      <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
@@ -2672,7 +2677,7 @@
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
     </row>
-    <row r="18" ht="15" spans="1:29">
+    <row r="18" ht="14.75" spans="1:29">
       <c r="A18" s="19"/>
       <c r="B18" s="14" t="s">
         <v>21</v>
@@ -2734,7 +2739,7 @@
       <c r="AB18" s="23"/>
       <c r="AC18" s="23"/>
     </row>
-    <row r="19" ht="15" spans="1:29">
+    <row r="19" ht="14.75" spans="1:29">
       <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
@@ -2744,7 +2749,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21">
-        <f>SUM(E7,E9,E11,E13,E15,E17)</f>
+        <f t="shared" ref="E19:J19" si="8">SUM(E7,E9,E11,E13,E15,E17)</f>
         <v>0</v>
       </c>
       <c r="F19" s="21">
@@ -2752,21 +2757,27 @@
         <v>0</v>
       </c>
       <c r="G19" s="21">
-        <f>SUM(G7,G9,G11,G13,G15)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H19" s="21">
-        <f>SUM(H7,H9,H11,H13,H15)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="21">
+        <f>SUM(J7,J9,J11,J13,J15,J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <f>SUM(K7,K9,K11,K13,K15,K17)</f>
+        <v>0</v>
+      </c>
       <c r="L19" s="21">
-        <f>SUM(L7,L9,L11,L13,L15)</f>
+        <f>SUM(L7,L9,L11,L13,L15,L17)</f>
         <v>0</v>
       </c>
       <c r="M19" s="58" t="str">
@@ -2808,7 +2819,7 @@
       <c r="AB19" s="23"/>
       <c r="AC19" s="23"/>
     </row>
-    <row r="20" ht="15" spans="1:29">
+    <row r="20" ht="14.75" spans="1:29">
       <c r="A20" s="12"/>
       <c r="B20" s="14" t="s">
         <v>28</v>
@@ -2835,8 +2846,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="21">
+        <f>IF(B2&lt;&gt;0,J21/B2,"-")</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <f>IF(B2&lt;&gt;0,K21/B2,"-")</f>
+        <v>0</v>
+      </c>
       <c r="L20" s="21">
         <f>IF(B2&lt;&gt;0,L21/B2,"-")</f>
         <v>0</v>
@@ -2880,7 +2897,7 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="23"/>
     </row>
-    <row r="21" ht="15" spans="1:29">
+    <row r="21" spans="1:29">
       <c r="A21" s="19"/>
       <c r="B21" s="14" t="s">
         <v>21</v>
@@ -2907,10 +2924,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="21">
+        <f>SUM(J8,J10,J12,J14,J16,J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <f>SUM(K8,K10,K12,K14,K16,K18)</f>
+        <v>0</v>
+      </c>
       <c r="L21" s="21">
-        <f>SUM(L8,L10,L12,L14,L16)</f>
+        <f>SUM(L8,L10,L12,L14,L16,L18)</f>
         <v>0</v>
       </c>
       <c r="M21" s="58" t="str">
@@ -2952,7 +2975,7 @@
       <c r="AB21" s="23"/>
       <c r="AC21" s="23"/>
     </row>
-    <row r="22" ht="15" spans="1:29">
+    <row r="22" spans="1:29">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -2963,9 +2986,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
+      <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21">
         <f t="shared" si="0"/>
@@ -3013,7 +3034,7 @@
       <c r="AB22" s="23"/>
       <c r="AC22" s="23"/>
     </row>
-    <row r="23" ht="15" spans="1:29">
+    <row r="23" ht="14.75" spans="1:29">
       <c r="A23" s="19"/>
       <c r="B23" s="14" t="s">
         <v>28</v>
@@ -3076,7 +3097,7 @@
       <c r="AB23" s="23"/>
       <c r="AC23" s="23"/>
     </row>
-    <row r="24" ht="15" spans="1:29">
+    <row r="24" ht="14.75" spans="1:29">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
@@ -3139,7 +3160,7 @@
       <c r="AB24" s="23"/>
       <c r="AC24" s="23"/>
     </row>
-    <row r="25" ht="15" spans="1:29">
+    <row r="25" ht="14.75" spans="1:29">
       <c r="A25" s="19"/>
       <c r="B25" s="14" t="s">
         <v>28</v>
@@ -3200,7 +3221,7 @@
       <c r="AB25" s="23"/>
       <c r="AC25" s="23"/>
     </row>
-    <row r="26" ht="15" spans="1:29">
+    <row r="26" ht="14.75" spans="1:29">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -3263,7 +3284,7 @@
       <c r="AB26" s="23"/>
       <c r="AC26" s="23"/>
     </row>
-    <row r="27" ht="15" spans="1:29">
+    <row r="27" ht="14.75" spans="1:29">
       <c r="A27" s="19"/>
       <c r="B27" s="14" t="s">
         <v>21</v>
@@ -3324,7 +3345,7 @@
       <c r="AB27" s="23"/>
       <c r="AC27" s="23"/>
     </row>
-    <row r="28" ht="15" spans="1:29">
+    <row r="28" ht="14.75" spans="1:29">
       <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
@@ -3388,7 +3409,7 @@
       <c r="AB28" s="23"/>
       <c r="AC28" s="23"/>
     </row>
-    <row r="29" ht="15" spans="1:29">
+    <row r="29" spans="1:29">
       <c r="A29" s="19"/>
       <c r="B29" s="14" t="s">
         <v>21</v>
@@ -3450,7 +3471,7 @@
       <c r="AB29" s="23"/>
       <c r="AC29" s="23"/>
     </row>
-    <row r="30" ht="15" spans="1:29">
+    <row r="30" spans="1:29">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -3472,15 +3493,21 @@
         <v>0</v>
       </c>
       <c r="H30" s="21">
-        <f>SUM(H17,H19,H22,H24,H26,H28)</f>
+        <f>SUM(H19,H22,H24,H26,H28)</f>
         <v>0</v>
       </c>
       <c r="I30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="J30" s="21">
+        <f>SUM(J19,J22,J24,J26,J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <f>SUM(K19,K22,K24,K26,K28)</f>
+        <v>0</v>
+      </c>
       <c r="L30" s="21">
         <f>SUM(L19,L22,L24,L26,L28)</f>
         <v>0</v>
@@ -3524,7 +3551,7 @@
       <c r="AB30" s="23"/>
       <c r="AC30" s="23"/>
     </row>
-    <row r="31" ht="15" spans="1:29">
+    <row r="31" spans="1:29">
       <c r="A31" s="12"/>
       <c r="B31" s="14" t="s">
         <v>28</v>
@@ -3551,8 +3578,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="J31" s="21">
+        <f>J32/B2</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
+        <f>K32/B2</f>
+        <v>0</v>
+      </c>
       <c r="L31" s="21">
         <f>IF(B2&lt;&gt;0,L32/B2,"-")</f>
         <v>0</v>
@@ -3596,7 +3629,7 @@
       <c r="AB31" s="23"/>
       <c r="AC31" s="23"/>
     </row>
-    <row r="32" ht="15" spans="1:29">
+    <row r="32" spans="1:29">
       <c r="A32" s="19"/>
       <c r="B32" s="14" t="s">
         <v>21</v>
@@ -3612,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="21">
-        <f>G21+(G23+G25)*B2+G27+G29+G18</f>
+        <f>G21+(G23+G25)*B2+G27+G29</f>
         <v>0</v>
       </c>
       <c r="H32" s="21">
@@ -3623,8 +3656,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="J32" s="21">
+        <f>J21+J23*B2+J25*B2+J27+J29</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="21">
+        <f>SUM(K18,K21,K27,K29)+K23*B2+K25*B2</f>
+        <v>0</v>
+      </c>
       <c r="L32" s="21">
         <f>SUM(L18,L21,L27,L29)+L23*B2+L25*B2</f>
         <v>0</v>
@@ -3792,7 +3831,7 @@
       <c r="AB36" s="23"/>
       <c r="AC36" s="23"/>
     </row>
-    <row r="37" ht="15" spans="1:29">
+    <row r="37" ht="14.75" spans="1:29">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -3860,7 +3899,7 @@
       <c r="AB38" s="23"/>
       <c r="AC38" s="23"/>
     </row>
-    <row r="39" ht="21.75" spans="1:29">
+    <row r="39" ht="20.75" spans="1:29">
       <c r="A39" s="28" t="s">
         <v>36</v>
       </c>
@@ -3917,7 +3956,7 @@
       <c r="AB39" s="23"/>
       <c r="AC39" s="23"/>
     </row>
-    <row r="40" ht="15" spans="1:29">
+    <row r="40" ht="14.75" spans="1:29">
       <c r="A40" s="29" t="s">
         <v>40</v>
       </c>
@@ -3950,7 +3989,7 @@
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
     </row>
-    <row r="41" ht="15" spans="1:29">
+    <row r="41" ht="14.75" spans="1:29">
       <c r="A41" s="31" t="s">
         <v>41</v>
       </c>
@@ -4001,7 +4040,7 @@
       <c r="AB41" s="23"/>
       <c r="AC41" s="23"/>
     </row>
-    <row r="42" ht="15" spans="1:29">
+    <row r="42" ht="14.75" spans="1:29">
       <c r="A42" s="36"/>
       <c r="B42" s="32">
         <v>0</v>
@@ -4050,7 +4089,7 @@
       <c r="AB42" s="23"/>
       <c r="AC42" s="23"/>
     </row>
-    <row r="43" ht="15" spans="1:29">
+    <row r="43" ht="14.75" spans="1:29">
       <c r="A43" s="36"/>
       <c r="B43" s="32">
         <v>0</v>
@@ -4099,7 +4138,7 @@
       <c r="AB43" s="23"/>
       <c r="AC43" s="23"/>
     </row>
-    <row r="44" ht="15" spans="1:29">
+    <row r="44" ht="14.75" spans="1:29">
       <c r="A44" s="36"/>
       <c r="B44" s="32">
         <v>0</v>
@@ -4148,7 +4187,7 @@
       <c r="AB44" s="23"/>
       <c r="AC44" s="23"/>
     </row>
-    <row r="45" ht="15" spans="1:29">
+    <row r="45" ht="14.75" spans="1:29">
       <c r="A45" s="36"/>
       <c r="B45" s="32">
         <v>0</v>
@@ -4197,7 +4236,7 @@
       <c r="AB45" s="23"/>
       <c r="AC45" s="23"/>
     </row>
-    <row r="46" ht="15" spans="1:29">
+    <row r="46" ht="14.75" spans="1:29">
       <c r="A46" s="36"/>
       <c r="B46" s="32">
         <v>0</v>
@@ -4246,7 +4285,7 @@
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
     </row>
-    <row r="47" ht="15" spans="1:29">
+    <row r="47" ht="14.75" spans="1:29">
       <c r="A47" s="36"/>
       <c r="B47" s="32">
         <v>0</v>
@@ -4295,7 +4334,7 @@
       <c r="AB47" s="23"/>
       <c r="AC47" s="23"/>
     </row>
-    <row r="48" ht="15" spans="1:29">
+    <row r="48" ht="14.75" spans="1:29">
       <c r="A48" s="36"/>
       <c r="B48" s="32">
         <v>0</v>
@@ -4344,7 +4383,7 @@
       <c r="AB48" s="23"/>
       <c r="AC48" s="23"/>
     </row>
-    <row r="49" ht="15" spans="1:29">
+    <row r="49" ht="14.75" spans="1:29">
       <c r="A49" s="36"/>
       <c r="B49" s="32">
         <v>0</v>
@@ -4393,7 +4432,7 @@
       <c r="AB49" s="23"/>
       <c r="AC49" s="23"/>
     </row>
-    <row r="50" ht="15" spans="1:29">
+    <row r="50" ht="14.75" spans="1:29">
       <c r="A50" s="36"/>
       <c r="B50" s="32">
         <v>0</v>
@@ -4442,7 +4481,7 @@
       <c r="AB50" s="23"/>
       <c r="AC50" s="23"/>
     </row>
-    <row r="51" ht="15" spans="1:29">
+    <row r="51" ht="14.75" spans="1:29">
       <c r="A51" s="37"/>
       <c r="B51" s="38" t="s">
         <v>43</v>
@@ -4498,7 +4537,7 @@
       <c r="AB51" s="23"/>
       <c r="AC51" s="23"/>
     </row>
-    <row r="52" ht="15" spans="1:29">
+    <row r="52" ht="14.75" spans="1:29">
       <c r="A52" s="39" t="s">
         <v>44</v>
       </c>
@@ -4553,7 +4592,7 @@
       <c r="AB52" s="23"/>
       <c r="AC52" s="23"/>
     </row>
-    <row r="53" ht="15" spans="1:29">
+    <row r="53" ht="14.75" spans="1:29">
       <c r="A53" s="28" t="s">
         <v>13</v>
       </c>
@@ -4612,7 +4651,7 @@
       <c r="AB53" s="23"/>
       <c r="AC53" s="23"/>
     </row>
-    <row r="54" ht="15" spans="1:29">
+    <row r="54" ht="14.75" spans="1:29">
       <c r="A54" s="29" t="s">
         <v>45</v>
       </c>
@@ -4645,7 +4684,7 @@
       <c r="AB54" s="23"/>
       <c r="AC54" s="23"/>
     </row>
-    <row r="55" ht="23.25" spans="1:29">
+    <row r="55" ht="24.75" spans="1:29">
       <c r="A55" s="31" t="s">
         <v>46</v>
       </c>
@@ -4683,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="71" t="str">
-        <f t="shared" ref="Q55:Q60" si="8">IF(O55&lt;&gt;0,C55/O55,"-")</f>
+        <f t="shared" ref="Q55:Q60" si="9">IF(O55&lt;&gt;0,C55/O55,"-")</f>
         <v>-</v>
       </c>
       <c r="R55" s="27"/>
@@ -4699,7 +4738,7 @@
       <c r="AB55" s="23"/>
       <c r="AC55" s="23"/>
     </row>
-    <row r="56" ht="15" spans="1:29">
+    <row r="56" ht="14.75" spans="1:29">
       <c r="A56" s="36"/>
       <c r="B56" s="38" t="s">
         <v>48</v>
@@ -4735,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="R56" s="27"/>
@@ -4751,7 +4790,7 @@
       <c r="AB56" s="23"/>
       <c r="AC56" s="23"/>
     </row>
-    <row r="57" ht="23.25" spans="1:29">
+    <row r="57" ht="24.75" spans="1:29">
       <c r="A57" s="36"/>
       <c r="B57" s="38" t="s">
         <v>49</v>
@@ -4787,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="R57" s="27"/>
@@ -4803,7 +4842,7 @@
       <c r="AB57" s="23"/>
       <c r="AC57" s="23"/>
     </row>
-    <row r="58" ht="23.25" spans="1:29">
+    <row r="58" ht="24.75" spans="1:29">
       <c r="A58" s="36"/>
       <c r="B58" s="38" t="s">
         <v>50</v>
@@ -4839,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="R58" s="27"/>
@@ -4855,7 +4894,7 @@
       <c r="AB58" s="23"/>
       <c r="AC58" s="23"/>
     </row>
-    <row r="59" ht="68.25" spans="1:29">
+    <row r="59" ht="72.75" spans="1:29">
       <c r="A59" s="36"/>
       <c r="B59" s="38" t="s">
         <v>51</v>
@@ -4891,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="R59" s="27"/>
@@ -4907,7 +4946,7 @@
       <c r="AB59" s="23"/>
       <c r="AC59" s="23"/>
     </row>
-    <row r="60" ht="15" spans="1:29">
+    <row r="60" ht="14.75" spans="1:29">
       <c r="A60" s="37"/>
       <c r="B60" s="38" t="s">
         <v>43</v>
@@ -4929,27 +4968,27 @@
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="42">
-        <f t="shared" ref="H60:M60" si="9">SUM(H55:H59)</f>
+        <f t="shared" ref="H60:M60" si="10">SUM(H55:H59)</f>
         <v>0</v>
       </c>
       <c r="I60" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J60" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K60" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L60" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M60" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N60" s="38" t="s">
@@ -4964,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-</v>
       </c>
       <c r="R60" s="27"/>
@@ -4980,7 +5019,7 @@
       <c r="AB60" s="23"/>
       <c r="AC60" s="23"/>
     </row>
-    <row r="61" ht="15" spans="1:29">
+    <row r="61" ht="14.75" spans="1:29">
       <c r="A61" s="39" t="s">
         <v>52</v>
       </c>
@@ -5049,7 +5088,7 @@
       <c r="AB61" s="23"/>
       <c r="AC61" s="23"/>
     </row>
-    <row r="62" ht="15" spans="1:29">
+    <row r="62" ht="14.75" spans="1:29">
       <c r="A62" s="39" t="s">
         <v>53</v>
       </c>
@@ -5106,7 +5145,7 @@
       <c r="AB62" s="23"/>
       <c r="AC62" s="23"/>
     </row>
-    <row r="63" ht="15" spans="1:29">
+    <row r="63" ht="14.75" spans="1:29">
       <c r="A63" s="28" t="s">
         <v>13</v>
       </c>
@@ -5237,7 +5276,7 @@
       <c r="AB65" s="23"/>
       <c r="AC65" s="23"/>
     </row>
-    <row r="66" ht="15" spans="1:29">
+    <row r="66" ht="14.75" spans="1:29">
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -5322,7 +5361,7 @@
       <c r="AB67" s="23"/>
       <c r="AC67" s="23"/>
     </row>
-    <row r="68" ht="15" spans="1:29">
+    <row r="68" ht="14.75" spans="1:29">
       <c r="A68" s="77"/>
       <c r="B68" s="78"/>
       <c r="C68" s="37"/>
@@ -5369,7 +5408,7 @@
       <c r="AB68" s="23"/>
       <c r="AC68" s="23"/>
     </row>
-    <row r="69" ht="15" spans="1:29">
+    <row r="69" ht="14.75" spans="1:29">
       <c r="A69" s="80" t="s">
         <v>67</v>
       </c>
@@ -5392,7 +5431,7 @@
         <v>21353134.7838938</v>
       </c>
       <c r="H69" s="84">
-        <f t="shared" ref="H69:H74" si="10">E69/D69</f>
+        <f t="shared" ref="H69:H74" si="11">E69/D69</f>
         <v>1.6078700985552</v>
       </c>
       <c r="I69" s="83">
@@ -5443,7 +5482,7 @@
       <c r="AB69" s="23"/>
       <c r="AC69" s="23"/>
     </row>
-    <row r="70" ht="15" spans="1:29">
+    <row r="70" ht="14.75" spans="1:29">
       <c r="A70" s="80" t="s">
         <v>29</v>
       </c>
@@ -5465,7 +5504,7 @@
         <v>-1526488.7</v>
       </c>
       <c r="H70" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.85437843491245</v>
       </c>
       <c r="I70" s="85">
@@ -5473,7 +5512,7 @@
         <v>-1526488.7</v>
       </c>
       <c r="J70" s="86">
-        <f t="shared" ref="J70:J81" si="11">E70/F70</f>
+        <f t="shared" ref="J70:J81" si="12">E70/F70</f>
         <v>0.929637771186444</v>
       </c>
       <c r="K70" s="85">
@@ -5486,19 +5525,19 @@
         <v>21694717.83</v>
       </c>
       <c r="N70" s="85">
-        <f t="shared" ref="N70:N81" si="12">L70-K70</f>
+        <f t="shared" ref="N70:N81" si="13">L70-K70</f>
         <v>1048614.7966667</v>
       </c>
       <c r="O70" s="86">
-        <f t="shared" ref="O70:O81" si="13">IF(K70&lt;&gt;0,L70/K70,"-")</f>
+        <f t="shared" ref="O70:O81" si="14">IF(K70&lt;&gt;0,L70/K70,"-")</f>
         <v>1.05484497638839</v>
       </c>
       <c r="P70" s="85">
-        <f t="shared" ref="P70:P81" si="14">L70-M70</f>
+        <f t="shared" ref="P70:P81" si="15">L70-M70</f>
         <v>-1526488.7</v>
       </c>
       <c r="Q70" s="86">
-        <f t="shared" ref="Q70:Q81" si="15">IF(M70&lt;&gt;0,L70/M70,"-")</f>
+        <f t="shared" ref="Q70:Q81" si="16">IF(M70&lt;&gt;0,L70/M70,"-")</f>
         <v>0.929637771186444</v>
       </c>
       <c r="R70" s="23"/>
@@ -5514,7 +5553,7 @@
       <c r="AB70" s="23"/>
       <c r="AC70" s="23"/>
     </row>
-    <row r="71" ht="15" spans="1:29">
+    <row r="71" ht="14.75" spans="1:29">
       <c r="A71" s="80" t="s">
         <v>68</v>
       </c>
@@ -5536,15 +5575,15 @@
         <v>11902586.5138938</v>
       </c>
       <c r="H71" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.50807629804883</v>
       </c>
       <c r="I71" s="85">
-        <f t="shared" ref="I71:I81" si="16">E71-F71</f>
+        <f t="shared" ref="I71:I81" si="17">E71-F71</f>
         <v>26149801.07</v>
       </c>
       <c r="J71" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.84870019934691</v>
       </c>
       <c r="K71" s="85">
@@ -5557,19 +5596,19 @@
         <v>9179555.32</v>
       </c>
       <c r="N71" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3296535.0566667</v>
       </c>
       <c r="O71" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.10291116796622</v>
       </c>
       <c r="P71" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26149801.07</v>
       </c>
       <c r="Q71" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.84870019934691</v>
       </c>
       <c r="R71" s="23"/>
@@ -5585,7 +5624,7 @@
       <c r="AB71" s="23"/>
       <c r="AC71" s="23"/>
     </row>
-    <row r="72" ht="15" spans="1:29">
+    <row r="72" ht="14.75" spans="1:29">
       <c r="A72" s="80" t="s">
         <v>69</v>
       </c>
@@ -5607,15 +5646,15 @@
         <v>158324.14</v>
       </c>
       <c r="H72" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.19190391266477</v>
       </c>
       <c r="I72" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>60063.2000000001</v>
       </c>
       <c r="J72" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.06505424494133</v>
       </c>
       <c r="K72" s="85">
@@ -5628,19 +5667,19 @@
         <v>923278.72</v>
       </c>
       <c r="N72" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24370.4675</v>
       </c>
       <c r="O72" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.02541313136743</v>
       </c>
       <c r="P72" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>60063.2000000001</v>
       </c>
       <c r="Q72" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.06505424494133</v>
       </c>
       <c r="R72" s="23"/>
@@ -5655,7 +5694,7 @@
       <c r="AB72" s="23"/>
       <c r="AC72" s="23"/>
     </row>
-    <row r="73" ht="15" spans="1:29">
+    <row r="73" ht="14.75" spans="1:29">
       <c r="A73" s="80" t="s">
         <v>70</v>
       </c>
@@ -5678,15 +5717,15 @@
         <v>18577838.0260453</v>
       </c>
       <c r="H73" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.53660329031234</v>
       </c>
       <c r="I73" s="83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22022202.02</v>
       </c>
       <c r="J73" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.70636473694843</v>
       </c>
       <c r="K73" s="83">
@@ -5701,19 +5740,19 @@
         <v>31176814</v>
       </c>
       <c r="N73" s="83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2290069.5803012</v>
       </c>
       <c r="O73" s="84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.04498363726725</v>
       </c>
       <c r="P73" s="83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>22022202.02</v>
       </c>
       <c r="Q73" s="84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.70636473694843</v>
       </c>
       <c r="R73" s="23"/>
@@ -5729,7 +5768,7 @@
       <c r="AB73" s="23"/>
       <c r="AC73" s="23"/>
     </row>
-    <row r="74" ht="15" spans="1:29">
+    <row r="74" ht="14.75" spans="1:29">
       <c r="A74" s="80" t="s">
         <v>71</v>
       </c>
@@ -5751,15 +5790,15 @@
         <v>17075462.3774852</v>
       </c>
       <c r="H74" s="86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.51457506336485</v>
       </c>
       <c r="I74" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>19723914.67</v>
       </c>
       <c r="J74" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.64594097198121</v>
       </c>
       <c r="K74" s="85">
@@ -5772,19 +5811,19 @@
         <v>30535165.79</v>
       </c>
       <c r="N74" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2492870.0884903</v>
       </c>
       <c r="O74" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.05218898608664</v>
       </c>
       <c r="P74" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>19723914.67</v>
       </c>
       <c r="Q74" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.64594097198121</v>
       </c>
       <c r="R74" s="23"/>
@@ -5800,7 +5839,7 @@
       <c r="AB74" s="23"/>
       <c r="AC74" s="23"/>
     </row>
-    <row r="75" ht="15" spans="1:29">
+    <row r="75" ht="14.75" spans="1:29">
       <c r="A75" s="80" t="s">
         <v>72</v>
       </c>
@@ -5818,19 +5857,19 @@
         <v>1085.7</v>
       </c>
       <c r="G75" s="85">
-        <f t="shared" ref="G75:G81" si="17">E75-D75</f>
+        <f t="shared" ref="G75:G81" si="18">E75-D75</f>
         <v>-981.006666666667</v>
       </c>
       <c r="H75" s="86">
-        <f t="shared" ref="H75:H81" si="18">E75/D75</f>
+        <f t="shared" ref="H75:H81" si="19">E75/D75</f>
         <v>0</v>
       </c>
       <c r="I75" s="85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1085.7</v>
       </c>
       <c r="J75" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K75" s="85">
@@ -5843,19 +5882,19 @@
         <v>1085.7</v>
       </c>
       <c r="N75" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-319.07375</v>
       </c>
       <c r="O75" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P75" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1085.7</v>
       </c>
       <c r="Q75" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R75" s="23"/>
@@ -5871,7 +5910,7 @@
       <c r="AB75" s="23"/>
       <c r="AC75" s="23"/>
     </row>
-    <row r="76" ht="15" spans="1:29">
+    <row r="76" ht="14.75" spans="1:29">
       <c r="A76" s="80" t="s">
         <v>73</v>
       </c>
@@ -5889,19 +5928,19 @@
         <v>202451.7</v>
       </c>
       <c r="G76" s="85">
+        <f t="shared" si="18"/>
+        <v>1277113.68775082</v>
+      </c>
+      <c r="H76" s="86">
+        <f t="shared" si="19"/>
+        <v>2.2143831911574</v>
+      </c>
+      <c r="I76" s="85">
         <f t="shared" si="17"/>
-        <v>1277113.68775082</v>
-      </c>
-      <c r="H76" s="86">
-        <f t="shared" si="18"/>
-        <v>2.2143831911574</v>
-      </c>
-      <c r="I76" s="85">
-        <f t="shared" si="16"/>
         <v>2126318.25</v>
       </c>
       <c r="J76" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.5028421593891</v>
       </c>
       <c r="K76" s="85">
@@ -5914,19 +5953,19 @@
         <v>202451.7</v>
       </c>
       <c r="N76" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-323636.59900391</v>
       </c>
       <c r="O76" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.877983788297669</v>
       </c>
       <c r="P76" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2126318.25</v>
       </c>
       <c r="Q76" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.5028421593891</v>
       </c>
       <c r="R76" s="23"/>
@@ -5942,7 +5981,7 @@
       <c r="AB76" s="23"/>
       <c r="AC76" s="23"/>
     </row>
-    <row r="77" ht="15" spans="1:29">
+    <row r="77" ht="14.75" spans="1:29">
       <c r="A77" s="80" t="s">
         <v>74</v>
       </c>
@@ -5960,19 +5999,19 @@
         <v>349336.8</v>
       </c>
       <c r="G77" s="85">
+        <f t="shared" si="18"/>
+        <v>117437.214444444</v>
+      </c>
+      <c r="H77" s="86">
+        <f t="shared" si="19"/>
+        <v>1.47890891887023</v>
+      </c>
+      <c r="I77" s="85">
         <f t="shared" si="17"/>
-        <v>117437.214444444</v>
-      </c>
-      <c r="H77" s="86">
-        <f t="shared" si="18"/>
-        <v>1.47890891887023</v>
-      </c>
-      <c r="I77" s="85">
-        <f t="shared" si="16"/>
         <v>13318.68</v>
       </c>
       <c r="J77" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.03812561402062</v>
       </c>
       <c r="K77" s="85">
@@ -5985,19 +6024,19 @@
         <v>349336.8</v>
       </c>
       <c r="N77" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>118025.354666667</v>
       </c>
       <c r="O77" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.48246451456396</v>
       </c>
       <c r="P77" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13318.68</v>
       </c>
       <c r="Q77" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.03812561402062</v>
       </c>
       <c r="R77" s="23"/>
@@ -6013,7 +6052,7 @@
       <c r="AB77" s="23"/>
       <c r="AC77" s="23"/>
     </row>
-    <row r="78" ht="15" spans="1:29">
+    <row r="78" ht="14.75" spans="1:29">
       <c r="A78" s="80" t="s">
         <v>75</v>
       </c>
@@ -6031,19 +6070,19 @@
         <v>60452.9000000001</v>
       </c>
       <c r="G78" s="85">
+        <f t="shared" si="18"/>
+        <v>-43336.4828018519</v>
+      </c>
+      <c r="H78" s="86">
+        <f t="shared" si="19"/>
+        <v>0.599393423903793</v>
+      </c>
+      <c r="I78" s="85">
         <f t="shared" si="17"/>
-        <v>-43336.4828018519</v>
-      </c>
-      <c r="H78" s="86">
-        <f t="shared" si="18"/>
-        <v>0.599393423903793</v>
-      </c>
-      <c r="I78" s="85">
-        <f t="shared" si="16"/>
         <v>4387.78</v>
       </c>
       <c r="J78" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.07258179508345</v>
       </c>
       <c r="K78" s="85">
@@ -6056,19 +6095,19 @@
         <v>60452.9000000001</v>
       </c>
       <c r="N78" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-38509.5506499999</v>
       </c>
       <c r="O78" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.627387859632223</v>
       </c>
       <c r="P78" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4387.78</v>
       </c>
       <c r="Q78" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.07258179508345</v>
       </c>
       <c r="R78" s="23"/>
@@ -6084,7 +6123,7 @@
       <c r="AB78" s="23"/>
       <c r="AC78" s="23"/>
     </row>
-    <row r="79" ht="15" spans="1:29">
+    <row r="79" ht="14.75" spans="1:29">
       <c r="A79" s="80" t="s">
         <v>76</v>
       </c>
@@ -6102,19 +6141,19 @@
         <v>28321.11</v>
       </c>
       <c r="G79" s="85">
+        <f t="shared" si="18"/>
+        <v>152142.235833333</v>
+      </c>
+      <c r="H79" s="86">
+        <f t="shared" si="19"/>
+        <v>5.82574308751299</v>
+      </c>
+      <c r="I79" s="85">
         <f t="shared" si="17"/>
-        <v>152142.235833333</v>
-      </c>
-      <c r="H79" s="86">
-        <f t="shared" si="18"/>
-        <v>5.82574308751299</v>
-      </c>
-      <c r="I79" s="85">
-        <f t="shared" si="16"/>
         <v>155348.34</v>
       </c>
       <c r="J79" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.48524898918157</v>
       </c>
       <c r="K79" s="85">
@@ -6127,19 +6166,19 @@
         <v>28321.11</v>
       </c>
       <c r="N79" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41639.360548148</v>
       </c>
       <c r="O79" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.29317281083783</v>
       </c>
       <c r="P79" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>155348.34</v>
       </c>
       <c r="Q79" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.48524898918157</v>
       </c>
       <c r="R79" s="23"/>
@@ -6155,7 +6194,7 @@
       <c r="AB79" s="23"/>
       <c r="AC79" s="23"/>
     </row>
-    <row r="80" ht="15" spans="1:29">
+    <row r="80" ht="14.75" spans="1:29">
       <c r="A80" s="80" t="s">
         <v>77</v>
       </c>
@@ -6173,19 +6212,19 @@
         <v>1804082.41</v>
       </c>
       <c r="G80" s="85">
+        <f t="shared" si="18"/>
+        <v>441529.398926997</v>
+      </c>
+      <c r="H80" s="86">
+        <f t="shared" si="19"/>
+        <v>-27.6363971038588</v>
+      </c>
+      <c r="I80" s="85">
         <f t="shared" si="17"/>
-        <v>441529.398926997</v>
-      </c>
-      <c r="H80" s="86">
-        <f t="shared" si="18"/>
-        <v>-27.6363971038588</v>
-      </c>
-      <c r="I80" s="85">
-        <f t="shared" si="16"/>
         <v>-1377971.48</v>
       </c>
       <c r="J80" s="86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.236192608296647</v>
       </c>
       <c r="K80" s="85">
@@ -6198,19 +6237,19 @@
         <v>1804082.41</v>
       </c>
       <c r="N80" s="85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>456771.385797902</v>
       </c>
       <c r="O80" s="86">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-13.8977363157517</v>
       </c>
       <c r="P80" s="85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-1377971.48</v>
       </c>
       <c r="Q80" s="86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.236192608296647</v>
       </c>
       <c r="R80" s="23"/>
@@ -6226,7 +6265,7 @@
       <c r="AB80" s="23"/>
       <c r="AC80" s="23"/>
     </row>
-    <row r="81" ht="15" spans="1:29">
+    <row r="81" ht="14.75" spans="1:29">
       <c r="A81" s="87" t="s">
         <v>78</v>
       </c>
@@ -6245,19 +6284,19 @@
         <v>2424820.28</v>
       </c>
       <c r="G81" s="83">
+        <f t="shared" si="18"/>
+        <v>3216826.15677546</v>
+      </c>
+      <c r="H81" s="84">
+        <f t="shared" si="19"/>
+        <v>7.54896393976124</v>
+      </c>
+      <c r="I81" s="83">
         <f t="shared" si="17"/>
-        <v>3216826.15677546</v>
-      </c>
-      <c r="H81" s="84">
-        <f t="shared" si="18"/>
-        <v>7.54896393976124</v>
-      </c>
-      <c r="I81" s="83">
-        <f t="shared" si="16"/>
         <v>1283202.06999999</v>
       </c>
       <c r="J81" s="84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.52919471211285</v>
       </c>
       <c r="K81" s="83">
@@ -6270,19 +6309,19 @@
         <v>2424820.28</v>
       </c>
       <c r="N81" s="83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2536222.12633004</v>
       </c>
       <c r="O81" s="84">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1643809884136</v>
       </c>
       <c r="P81" s="83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1283202.06999999</v>
       </c>
       <c r="Q81" s="84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.52919471211285</v>
       </c>
       <c r="R81" s="23"/>
